--- a/ProductLibrary/eLoyaltyV3/TestData/Points_Earning_Rule_Service_TestDataHotelOrigami_Service.xlsx
+++ b/ProductLibrary/eLoyaltyV3/TestData/Points_Earning_Rule_Service_TestDataHotelOrigami_Service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationFrameworks\Cendyn\ProductLibrary\eLoyaltyV3\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msridhar\Source\Repos\Cendyn.AutomationFramework\ProductLibrary\eLoyaltyV3\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E78F9-2CDB-4E08-80A2-AF51445407F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9930F-6BEA-4AD3-88F3-707A8F0C302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules_Setup" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="289">
   <si>
     <r>
       <rPr>
@@ -952,6 +952,12 @@
   <si>
     <t xml:space="preserve">Day 2 </t>
   </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
 </sst>
 </file>
 
@@ -2272,11 +2278,11 @@
       </c>
       <c r="C18" s="46">
         <f ca="1">DATE(YEAR(TODAY())-1,1,1)</f>
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D18" s="46">
         <f ca="1">DATE(YEAR(TODAY())+1,12,31)</f>
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -2346,11 +2352,11 @@
       </c>
       <c r="C19" s="46">
         <f ca="1">DATE(YEAR(TODAY())-1,1,1)</f>
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D19" s="46">
         <f ca="1">DATE(YEAR(TODAY())+1,12,31)</f>
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="E19" s="7">
         <v>5</v>
@@ -2434,11 +2440,11 @@
       </c>
       <c r="C20" s="46">
         <f ca="1">DATE(YEAR(TODAY())-1,1,1)</f>
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D20" s="46">
         <f ca="1">DATE(YEAR(TODAY())+1,12,31)</f>
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -2506,11 +2512,11 @@
       </c>
       <c r="C21" s="46">
         <f ca="1">DATE(YEAR(TODAY())-1,1,1)</f>
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D21" s="46">
         <f ca="1">DATE(YEAR(TODAY())+1,12,31)</f>
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="E21" s="7">
         <v>1</v>
@@ -2578,11 +2584,11 @@
       </c>
       <c r="C22" s="46">
         <f ca="1">DATE(YEAR(TODAY())-1,1,1)</f>
-        <v>43831</v>
+        <v>44562</v>
       </c>
       <c r="D22" s="46">
         <f ca="1">DATE(YEAR(TODAY())+1,12,31)</f>
-        <v>44926</v>
+        <v>45657</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -55757,11 +55763,11 @@
       </c>
       <c r="I2" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J2" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>25</v>
@@ -55780,23 +55786,35 @@
       </c>
       <c r="P2" s="47">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="R2" s="38">
+        <v>0</v>
+      </c>
+      <c r="S2" s="38">
+        <v>0</v>
+      </c>
+      <c r="T2" s="38">
+        <v>0</v>
+      </c>
+      <c r="U2" s="38">
+        <v>0</v>
+      </c>
+      <c r="V2" s="38">
+        <v>0</v>
+      </c>
       <c r="W2" s="38">
         <v>50</v>
       </c>
       <c r="X2" s="38">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="Z2" s="8" t="s">
         <v>90</v>
       </c>
@@ -55844,11 +55862,11 @@
       </c>
       <c r="I3" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J3" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>25</v>
@@ -55867,23 +55885,35 @@
       </c>
       <c r="P3" s="47">
         <f t="shared" ref="P3:P29" ca="1" si="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
+      <c r="R3" s="38">
+        <v>0</v>
+      </c>
+      <c r="S3" s="38">
+        <v>0</v>
+      </c>
+      <c r="T3" s="38">
+        <v>0</v>
+      </c>
+      <c r="U3" s="38">
+        <v>0</v>
+      </c>
+      <c r="V3" s="38">
+        <v>0</v>
+      </c>
       <c r="W3" s="2">
         <v>10</v>
       </c>
       <c r="X3" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z3" s="8" t="s">
         <v>94</v>
       </c>
@@ -55927,11 +55957,11 @@
       </c>
       <c r="I4" s="46">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="J4" s="46">
         <f ca="1">TODAY()-26</f>
-        <v>44338</v>
+        <v>45021</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>25</v>
@@ -55950,23 +55980,35 @@
       </c>
       <c r="P4" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="R4" s="38">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38">
+        <v>0</v>
+      </c>
+      <c r="T4" s="38">
+        <v>0</v>
+      </c>
+      <c r="U4" s="38">
+        <v>0</v>
+      </c>
+      <c r="V4" s="38">
+        <v>0</v>
+      </c>
       <c r="W4" s="2">
         <v>100</v>
       </c>
       <c r="X4" s="2">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="38">
         <v>50</v>
@@ -56012,11 +56054,11 @@
       </c>
       <c r="I5" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J5" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -56035,23 +56077,35 @@
       </c>
       <c r="P5" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="R5" s="38">
+        <v>0</v>
+      </c>
+      <c r="S5" s="38">
+        <v>0</v>
+      </c>
+      <c r="T5" s="38">
+        <v>0</v>
+      </c>
+      <c r="U5" s="38">
+        <v>0</v>
+      </c>
+      <c r="V5" s="38">
+        <v>0</v>
+      </c>
       <c r="W5" s="2">
         <v>10</v>
       </c>
       <c r="X5" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z5" s="8" t="s">
         <v>96</v>
       </c>
@@ -56095,11 +56149,11 @@
       </c>
       <c r="I6" s="46">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()-26</f>
-        <v>44338</v>
+        <v>45021</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>25</v>
@@ -56118,23 +56172,35 @@
       </c>
       <c r="P6" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
+      <c r="R6" s="38">
+        <v>0</v>
+      </c>
+      <c r="S6" s="38">
+        <v>0</v>
+      </c>
+      <c r="T6" s="38">
+        <v>0</v>
+      </c>
+      <c r="U6" s="38">
+        <v>0</v>
+      </c>
+      <c r="V6" s="38">
+        <v>0</v>
+      </c>
       <c r="W6" s="40">
         <v>20</v>
       </c>
       <c r="X6" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y6" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="38">
         <v>10</v>
@@ -56176,11 +56242,11 @@
       </c>
       <c r="I7" s="46">
         <f ca="1">TODAY()-23</f>
-        <v>44341</v>
+        <v>45024</v>
       </c>
       <c r="J7" s="46">
         <f ca="1">TODAY()-22</f>
-        <v>44342</v>
+        <v>45025</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>25</v>
@@ -56199,23 +56265,35 @@
       </c>
       <c r="P7" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
+      <c r="R7" s="38">
+        <v>0</v>
+      </c>
+      <c r="S7" s="38">
+        <v>0</v>
+      </c>
+      <c r="T7" s="38">
+        <v>0</v>
+      </c>
+      <c r="U7" s="38">
+        <v>0</v>
+      </c>
+      <c r="V7" s="38">
+        <v>0</v>
+      </c>
       <c r="W7" s="40">
         <v>20</v>
       </c>
       <c r="X7" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="38">
         <v>10</v>
@@ -56257,11 +56335,11 @@
       </c>
       <c r="I8" s="46">
         <f ca="1">TODAY()-20</f>
-        <v>44344</v>
+        <v>45027</v>
       </c>
       <c r="J8" s="46">
         <f ca="1">TODAY()-19</f>
-        <v>44345</v>
+        <v>45028</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>25</v>
@@ -56280,23 +56358,35 @@
       </c>
       <c r="P8" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
+      <c r="R8" s="38">
+        <v>0</v>
+      </c>
+      <c r="S8" s="38">
+        <v>0</v>
+      </c>
+      <c r="T8" s="38">
+        <v>0</v>
+      </c>
+      <c r="U8" s="38">
+        <v>0</v>
+      </c>
+      <c r="V8" s="38">
+        <v>0</v>
+      </c>
       <c r="W8" s="40">
         <v>10</v>
       </c>
       <c r="X8" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y8" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="38">
         <v>0</v>
@@ -56342,11 +56432,11 @@
       </c>
       <c r="I9" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J9" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>25</v>
@@ -56365,23 +56455,35 @@
       </c>
       <c r="P9" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
+      <c r="R9" s="38">
+        <v>0</v>
+      </c>
+      <c r="S9" s="38">
+        <v>0</v>
+      </c>
+      <c r="T9" s="38">
+        <v>0</v>
+      </c>
+      <c r="U9" s="38">
+        <v>0</v>
+      </c>
+      <c r="V9" s="38">
+        <v>0</v>
+      </c>
       <c r="W9" s="40">
         <v>50</v>
       </c>
       <c r="X9" s="40">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="Z9" s="8" t="s">
         <v>98</v>
       </c>
@@ -56425,11 +56527,11 @@
       </c>
       <c r="I10" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="J10" s="46">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>25</v>
@@ -56448,23 +56550,35 @@
       </c>
       <c r="P10" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
+      <c r="R10" s="38">
+        <v>0</v>
+      </c>
+      <c r="S10" s="38">
+        <v>0</v>
+      </c>
+      <c r="T10" s="38">
+        <v>0</v>
+      </c>
+      <c r="U10" s="38">
+        <v>0</v>
+      </c>
+      <c r="V10" s="38">
+        <v>0</v>
+      </c>
       <c r="W10" s="40">
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="38">
         <v>0</v>
@@ -56510,11 +56624,11 @@
       </c>
       <c r="I11" s="46">
         <f t="shared" ref="I11:I23" ca="1" si="2">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J11" s="46">
         <f t="shared" ref="J11:J24" ca="1" si="3">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>25</v>
@@ -56533,23 +56647,35 @@
       </c>
       <c r="P11" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
+      <c r="R11" s="38">
+        <v>0</v>
+      </c>
+      <c r="S11" s="38">
+        <v>0</v>
+      </c>
+      <c r="T11" s="38">
+        <v>0</v>
+      </c>
+      <c r="U11" s="38">
+        <v>0</v>
+      </c>
+      <c r="V11" s="38">
+        <v>0</v>
+      </c>
       <c r="W11" s="40">
         <v>50</v>
       </c>
       <c r="X11" s="40">
-        <v>50</v>
-      </c>
-      <c r="Y11" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>287</v>
+      </c>
       <c r="Z11" s="8" t="s">
         <v>101</v>
       </c>
@@ -56593,11 +56719,11 @@
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>25</v>
@@ -56616,23 +56742,35 @@
       </c>
       <c r="P12" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
+      <c r="R12" s="38">
+        <v>0</v>
+      </c>
+      <c r="S12" s="38">
+        <v>0</v>
+      </c>
+      <c r="T12" s="38">
+        <v>0</v>
+      </c>
+      <c r="U12" s="38">
+        <v>0</v>
+      </c>
+      <c r="V12" s="38">
+        <v>0</v>
+      </c>
       <c r="W12" s="40">
         <v>100</v>
       </c>
       <c r="X12" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="38">
         <v>50</v>
@@ -56674,11 +56812,11 @@
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>25</v>
@@ -56697,23 +56835,35 @@
       </c>
       <c r="P13" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
+      <c r="R13" s="38">
+        <v>0</v>
+      </c>
+      <c r="S13" s="38">
+        <v>0</v>
+      </c>
+      <c r="T13" s="38">
+        <v>0</v>
+      </c>
+      <c r="U13" s="38">
+        <v>0</v>
+      </c>
+      <c r="V13" s="38">
+        <v>0</v>
+      </c>
       <c r="W13" s="40">
         <v>0</v>
       </c>
       <c r="X13" s="40">
         <v>0</v>
       </c>
-      <c r="Y13" s="54"/>
+      <c r="Y13" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="38">
         <v>0</v>
@@ -56759,11 +56909,11 @@
       </c>
       <c r="I14" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J14" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>25</v>
@@ -56782,23 +56932,35 @@
       </c>
       <c r="P14" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
+      <c r="R14" s="38">
+        <v>0</v>
+      </c>
+      <c r="S14" s="38">
+        <v>0</v>
+      </c>
+      <c r="T14" s="38">
+        <v>0</v>
+      </c>
+      <c r="U14" s="38">
+        <v>0</v>
+      </c>
+      <c r="V14" s="38">
+        <v>0</v>
+      </c>
       <c r="W14" s="40">
         <v>0</v>
       </c>
       <c r="X14" s="40">
         <v>0</v>
       </c>
-      <c r="Y14" s="54"/>
+      <c r="Y14" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z14" s="8" t="s">
         <v>102</v>
       </c>
@@ -56846,11 +57008,11 @@
       </c>
       <c r="I15" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J15" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>106</v>
@@ -56869,23 +57031,35 @@
       </c>
       <c r="P15" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
+      <c r="R15" s="38">
+        <v>0</v>
+      </c>
+      <c r="S15" s="38">
+        <v>0</v>
+      </c>
+      <c r="T15" s="38">
+        <v>0</v>
+      </c>
+      <c r="U15" s="38">
+        <v>0</v>
+      </c>
+      <c r="V15" s="38">
+        <v>0</v>
+      </c>
       <c r="W15" s="40">
         <v>0</v>
       </c>
       <c r="X15" s="40">
         <v>0</v>
       </c>
-      <c r="Y15" s="54"/>
+      <c r="Y15" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z15" s="8" t="s">
         <v>104</v>
       </c>
@@ -56933,11 +57107,11 @@
       </c>
       <c r="I16" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J16" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>25</v>
@@ -56956,23 +57130,35 @@
       </c>
       <c r="P16" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
+      <c r="R16" s="38">
+        <v>0</v>
+      </c>
+      <c r="S16" s="38">
+        <v>0</v>
+      </c>
+      <c r="T16" s="38">
+        <v>0</v>
+      </c>
+      <c r="U16" s="38">
+        <v>0</v>
+      </c>
+      <c r="V16" s="38">
+        <v>0</v>
+      </c>
       <c r="W16" s="40">
         <v>0</v>
       </c>
       <c r="X16" s="40">
         <v>0</v>
       </c>
-      <c r="Y16" s="54"/>
+      <c r="Y16" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z16" s="8" t="s">
         <v>107</v>
       </c>
@@ -57020,11 +57206,11 @@
       </c>
       <c r="I17" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J17" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>25</v>
@@ -57043,23 +57229,35 @@
       </c>
       <c r="P17" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
+      <c r="S17" s="38">
+        <v>0</v>
+      </c>
+      <c r="T17" s="38">
+        <v>0</v>
+      </c>
+      <c r="U17" s="38">
+        <v>0</v>
+      </c>
+      <c r="V17" s="38">
+        <v>0</v>
+      </c>
       <c r="W17" s="40">
         <v>0</v>
       </c>
       <c r="X17" s="40">
         <v>0</v>
       </c>
-      <c r="Y17" s="54"/>
+      <c r="Y17" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z17" s="8" t="s">
         <v>110</v>
       </c>
@@ -57107,11 +57305,11 @@
       </c>
       <c r="I18" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>25</v>
@@ -57130,23 +57328,35 @@
       </c>
       <c r="P18" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q18" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="R18" s="38">
+        <v>0</v>
+      </c>
+      <c r="S18" s="38">
+        <v>0</v>
+      </c>
+      <c r="T18" s="38">
+        <v>0</v>
+      </c>
+      <c r="U18" s="38">
+        <v>0</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0</v>
+      </c>
       <c r="W18" s="40">
         <v>0</v>
       </c>
       <c r="X18" s="40">
         <v>0</v>
       </c>
-      <c r="Y18" s="54"/>
+      <c r="Y18" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z18" s="8" t="s">
         <v>113</v>
       </c>
@@ -57194,11 +57404,11 @@
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>25</v>
@@ -57217,23 +57427,35 @@
       </c>
       <c r="P19" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
+      <c r="R19" s="38">
+        <v>0</v>
+      </c>
+      <c r="S19" s="38">
+        <v>0</v>
+      </c>
+      <c r="T19" s="38">
+        <v>0</v>
+      </c>
+      <c r="U19" s="38">
+        <v>0</v>
+      </c>
+      <c r="V19" s="38">
+        <v>0</v>
+      </c>
       <c r="W19" s="40">
         <v>0</v>
       </c>
       <c r="X19" s="40">
         <v>0</v>
       </c>
-      <c r="Y19" s="54"/>
+      <c r="Y19" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z19" s="8" t="s">
         <v>116</v>
       </c>
@@ -57281,11 +57503,11 @@
       </c>
       <c r="I20" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K20" s="41" t="s">
         <v>120</v>
@@ -57304,23 +57526,35 @@
       </c>
       <c r="P20" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
+      <c r="R20" s="38">
+        <v>0</v>
+      </c>
+      <c r="S20" s="38">
+        <v>0</v>
+      </c>
+      <c r="T20" s="38">
+        <v>0</v>
+      </c>
+      <c r="U20" s="38">
+        <v>0</v>
+      </c>
+      <c r="V20" s="38">
+        <v>0</v>
+      </c>
       <c r="W20" s="40">
         <v>0</v>
       </c>
       <c r="X20" s="40">
         <v>0</v>
       </c>
-      <c r="Y20" s="54"/>
+      <c r="Y20" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="Z20" s="8" t="s">
         <v>118</v>
       </c>
@@ -57368,11 +57602,11 @@
       </c>
       <c r="I21" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>25</v>
@@ -57391,23 +57625,35 @@
       </c>
       <c r="P21" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
+      <c r="R21" s="38">
+        <v>0</v>
+      </c>
+      <c r="S21" s="38">
+        <v>0</v>
+      </c>
+      <c r="T21" s="38">
+        <v>0</v>
+      </c>
+      <c r="U21" s="38">
+        <v>0</v>
+      </c>
+      <c r="V21" s="38">
+        <v>0</v>
+      </c>
       <c r="W21" s="40">
         <v>49</v>
       </c>
       <c r="X21" s="40">
-        <v>49</v>
-      </c>
-      <c r="Y21" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z21" s="8" t="s">
         <v>121</v>
       </c>
@@ -57453,11 +57699,11 @@
       </c>
       <c r="I22" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>25</v>
@@ -57476,23 +57722,35 @@
       </c>
       <c r="P22" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
+      <c r="R22" s="38">
+        <v>0</v>
+      </c>
+      <c r="S22" s="38">
+        <v>0</v>
+      </c>
+      <c r="T22" s="38">
+        <v>0</v>
+      </c>
+      <c r="U22" s="38">
+        <v>0</v>
+      </c>
+      <c r="V22" s="38">
+        <v>0</v>
+      </c>
       <c r="W22" s="40">
         <v>0</v>
       </c>
       <c r="X22" s="40">
         <v>0</v>
       </c>
-      <c r="Y22" s="55"/>
+      <c r="Y22" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="Z22" s="8" t="s">
         <v>123</v>
       </c>
@@ -57538,11 +57796,11 @@
       </c>
       <c r="I23" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>25</v>
@@ -57561,23 +57819,35 @@
       </c>
       <c r="P23" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
+      <c r="R23" s="38">
+        <v>0</v>
+      </c>
+      <c r="S23" s="38">
+        <v>0</v>
+      </c>
+      <c r="T23" s="38">
+        <v>0</v>
+      </c>
+      <c r="U23" s="38">
+        <v>0</v>
+      </c>
+      <c r="V23" s="38">
+        <v>0</v>
+      </c>
       <c r="W23" s="40">
         <v>100</v>
       </c>
       <c r="X23" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y23" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z23" s="8" t="s">
         <v>124</v>
       </c>
@@ -57625,11 +57895,11 @@
       </c>
       <c r="I24" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>25</v>
@@ -57648,23 +57918,35 @@
       </c>
       <c r="P24" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
+      <c r="S24" s="38">
+        <v>0</v>
+      </c>
+      <c r="T24" s="38">
+        <v>0</v>
+      </c>
+      <c r="U24" s="38">
+        <v>0</v>
+      </c>
+      <c r="V24" s="38">
+        <v>0</v>
+      </c>
       <c r="W24" s="40">
         <v>100</v>
       </c>
       <c r="X24" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y24" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z24" s="8" t="s">
         <v>125</v>
       </c>
@@ -57712,11 +57994,11 @@
       </c>
       <c r="I25" s="46">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="J25" s="46">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>25</v>
@@ -57735,23 +58017,35 @@
       </c>
       <c r="P25" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
+      <c r="R25" s="38">
+        <v>0</v>
+      </c>
+      <c r="S25" s="38">
+        <v>0</v>
+      </c>
+      <c r="T25" s="38">
+        <v>0</v>
+      </c>
+      <c r="U25" s="38">
+        <v>0</v>
+      </c>
+      <c r="V25" s="38">
+        <v>0</v>
+      </c>
       <c r="W25" s="40">
         <v>50</v>
       </c>
       <c r="X25" s="40">
-        <v>50</v>
-      </c>
-      <c r="Y25" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z25" s="8" t="s">
         <v>127</v>
       </c>
@@ -57799,11 +58093,11 @@
       </c>
       <c r="I26" s="46">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="J26" s="46">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>25</v>
@@ -57822,23 +58116,35 @@
       </c>
       <c r="P26" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
+      <c r="R26" s="38">
+        <v>0</v>
+      </c>
+      <c r="S26" s="38">
+        <v>0</v>
+      </c>
+      <c r="T26" s="38">
+        <v>0</v>
+      </c>
+      <c r="U26" s="38">
+        <v>0</v>
+      </c>
+      <c r="V26" s="38">
+        <v>0</v>
+      </c>
       <c r="W26" s="40">
         <v>0</v>
       </c>
       <c r="X26" s="40">
         <v>0</v>
       </c>
-      <c r="Y26" s="55"/>
+      <c r="Y26" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="Z26" s="8" t="s">
         <v>129</v>
       </c>
@@ -57886,11 +58192,11 @@
       </c>
       <c r="I27" s="46">
         <f t="shared" ref="I27:I35" ca="1" si="4">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J27" s="46">
         <f t="shared" ref="J27:J35" ca="1" si="5">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>25</v>
@@ -57909,23 +58215,35 @@
       </c>
       <c r="P27" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
+      <c r="R27" s="38">
+        <v>0</v>
+      </c>
+      <c r="S27" s="38">
+        <v>250</v>
+      </c>
+      <c r="T27" s="38">
+        <v>0</v>
+      </c>
+      <c r="U27" s="38">
+        <v>0</v>
+      </c>
+      <c r="V27" s="38">
+        <v>0</v>
+      </c>
       <c r="W27" s="40">
         <v>350</v>
       </c>
       <c r="X27" s="40">
-        <v>350</v>
-      </c>
-      <c r="Y27" s="55"/>
+        <v>250</v>
+      </c>
+      <c r="Y27" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z27" s="8" t="s">
         <v>131</v>
       </c>
@@ -57971,11 +58289,11 @@
       </c>
       <c r="I28" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J28" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K28" s="41" t="s">
         <v>120</v>
@@ -57994,23 +58312,35 @@
       </c>
       <c r="P28" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
+      <c r="R28" s="38">
+        <v>0</v>
+      </c>
+      <c r="S28" s="38">
+        <v>0</v>
+      </c>
+      <c r="T28" s="38">
+        <v>0</v>
+      </c>
+      <c r="U28" s="38">
+        <v>0</v>
+      </c>
+      <c r="V28" s="38">
+        <v>0</v>
+      </c>
       <c r="W28" s="40">
         <v>200</v>
       </c>
       <c r="X28" s="40">
-        <v>200</v>
-      </c>
-      <c r="Y28" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z28" s="8" t="s">
         <v>133</v>
       </c>
@@ -58056,11 +58386,11 @@
       </c>
       <c r="I29" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J29" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>25</v>
@@ -58079,23 +58409,35 @@
       </c>
       <c r="P29" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
+      <c r="R29" s="38">
+        <v>0</v>
+      </c>
+      <c r="S29" s="38">
+        <v>0</v>
+      </c>
+      <c r="T29" s="38">
+        <v>0</v>
+      </c>
+      <c r="U29" s="38">
+        <v>0</v>
+      </c>
+      <c r="V29" s="38">
+        <v>0</v>
+      </c>
       <c r="W29" s="40">
         <v>100</v>
       </c>
       <c r="X29" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y29" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z29" s="8" t="s">
         <v>134</v>
       </c>
@@ -58141,11 +58483,11 @@
       </c>
       <c r="I30" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>25</v>
@@ -58164,23 +58506,35 @@
       </c>
       <c r="P30" s="47">
         <f ca="1">DATE(YEAR(TODAY()-365),1,1)-1</f>
-        <v>43830</v>
+        <v>44561</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
+      <c r="R30" s="38">
+        <v>0</v>
+      </c>
+      <c r="S30" s="38">
+        <v>500</v>
+      </c>
+      <c r="T30" s="38">
+        <v>0</v>
+      </c>
+      <c r="U30" s="38">
+        <v>0</v>
+      </c>
+      <c r="V30" s="38">
+        <v>0</v>
+      </c>
       <c r="W30" s="40">
         <v>700</v>
       </c>
       <c r="X30" s="40">
-        <v>700</v>
-      </c>
-      <c r="Y30" s="55"/>
+        <v>500</v>
+      </c>
+      <c r="Y30" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z30" s="8" t="s">
         <v>136</v>
       </c>
@@ -58226,11 +58580,11 @@
       </c>
       <c r="I31" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>25</v>
@@ -58249,23 +58603,35 @@
       </c>
       <c r="P31" s="47">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
+      <c r="R31" s="38">
+        <v>0</v>
+      </c>
+      <c r="S31" s="38">
+        <v>0</v>
+      </c>
+      <c r="T31" s="38">
+        <v>0</v>
+      </c>
+      <c r="U31" s="38">
+        <v>0</v>
+      </c>
+      <c r="V31" s="38">
+        <v>0</v>
+      </c>
       <c r="W31" s="40">
         <v>100</v>
       </c>
       <c r="X31" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y31" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z31" s="8" t="s">
         <v>137</v>
       </c>
@@ -58311,11 +58677,11 @@
       </c>
       <c r="I32" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>25</v>
@@ -58334,23 +58700,35 @@
       </c>
       <c r="P32" s="47">
         <f t="shared" ref="P32:P37" ca="1" si="6">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
+      <c r="R32" s="38">
+        <v>0</v>
+      </c>
+      <c r="S32" s="38">
+        <v>0</v>
+      </c>
+      <c r="T32" s="38">
+        <v>0</v>
+      </c>
+      <c r="U32" s="38">
+        <v>0</v>
+      </c>
+      <c r="V32" s="38">
+        <v>0</v>
+      </c>
       <c r="W32" s="40">
         <v>100</v>
       </c>
       <c r="X32" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y32" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z32" s="8" t="s">
         <v>138</v>
       </c>
@@ -58396,11 +58774,11 @@
       </c>
       <c r="I33" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>25</v>
@@ -58419,23 +58797,35 @@
       </c>
       <c r="P33" s="47">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
+      <c r="R33" s="38">
+        <v>0</v>
+      </c>
+      <c r="S33" s="38">
+        <v>0</v>
+      </c>
+      <c r="T33" s="38">
+        <v>0</v>
+      </c>
+      <c r="U33" s="38">
+        <v>0</v>
+      </c>
+      <c r="V33" s="38">
+        <v>0</v>
+      </c>
       <c r="W33" s="40">
         <v>0</v>
       </c>
       <c r="X33" s="40">
         <v>0</v>
       </c>
-      <c r="Y33" s="55"/>
+      <c r="Y33" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="Z33" s="8" t="s">
         <v>140</v>
       </c>
@@ -58481,11 +58871,11 @@
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>25</v>
@@ -58504,23 +58894,35 @@
       </c>
       <c r="P34" s="47">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
+      <c r="R34" s="38">
+        <v>0</v>
+      </c>
+      <c r="S34" s="38">
+        <v>250</v>
+      </c>
+      <c r="T34" s="38">
+        <v>0</v>
+      </c>
+      <c r="U34" s="38">
+        <v>0</v>
+      </c>
+      <c r="V34" s="38">
+        <v>0</v>
+      </c>
       <c r="W34" s="40">
         <v>350</v>
       </c>
       <c r="X34" s="40">
-        <v>350</v>
-      </c>
-      <c r="Y34" s="55"/>
+        <v>250</v>
+      </c>
+      <c r="Y34" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z34" s="8" t="s">
         <v>142</v>
       </c>
@@ -58566,11 +58968,11 @@
       </c>
       <c r="I35" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>25</v>
@@ -58589,23 +58991,35 @@
       </c>
       <c r="P35" s="47">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
+      <c r="R35" s="38">
+        <v>0</v>
+      </c>
+      <c r="S35" s="38">
+        <v>0</v>
+      </c>
+      <c r="T35" s="38">
+        <v>0</v>
+      </c>
+      <c r="U35" s="38">
+        <v>0</v>
+      </c>
+      <c r="V35" s="38">
+        <v>0</v>
+      </c>
       <c r="W35" s="40">
         <v>100</v>
       </c>
       <c r="X35" s="40">
-        <v>100</v>
-      </c>
-      <c r="Y35" s="55"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="55" t="s">
+        <v>287</v>
+      </c>
       <c r="Z35" s="8" t="s">
         <v>143</v>
       </c>
@@ -58674,23 +59088,35 @@
       </c>
       <c r="P36" s="47">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="51"/>
+      <c r="R36" s="38">
+        <v>0</v>
+      </c>
+      <c r="S36" s="38">
+        <v>0</v>
+      </c>
+      <c r="T36" s="38">
+        <v>0</v>
+      </c>
+      <c r="U36" s="38">
+        <v>0</v>
+      </c>
+      <c r="V36" s="51">
+        <v>0</v>
+      </c>
       <c r="W36" s="52">
         <v>0</v>
       </c>
       <c r="X36" s="52">
         <v>0</v>
       </c>
-      <c r="Y36" s="55"/>
+      <c r="Y36" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="Z36" s="8" t="s">
         <v>144</v>
       </c>
@@ -58738,11 +59164,11 @@
       </c>
       <c r="I37" s="46">
         <f ca="1">TODAY()+364</f>
-        <v>44728</v>
+        <v>45411</v>
       </c>
       <c r="J37" s="46">
         <f ca="1">TODAY()+365</f>
-        <v>44729</v>
+        <v>45412</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>25</v>
@@ -58761,23 +59187,35 @@
       </c>
       <c r="P37" s="47">
         <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="53"/>
+      <c r="R37" s="38">
+        <v>0</v>
+      </c>
+      <c r="S37" s="38">
+        <v>0</v>
+      </c>
+      <c r="T37" s="38">
+        <v>0</v>
+      </c>
+      <c r="U37" s="38">
+        <v>0</v>
+      </c>
+      <c r="V37" s="53">
+        <v>0</v>
+      </c>
       <c r="W37" s="53">
         <v>0</v>
       </c>
       <c r="X37" s="53">
         <v>0</v>
       </c>
-      <c r="Y37" s="55"/>
+      <c r="Y37" s="55" t="s">
+        <v>288</v>
+      </c>
       <c r="Z37" s="8" t="s">
         <v>146</v>
       </c>
@@ -59033,11 +59471,11 @@
       </c>
       <c r="L2" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M2" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>25</v>
@@ -59056,7 +59494,7 @@
       </c>
       <c r="S2" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>256</v>
@@ -59085,7 +59523,7 @@
       </c>
       <c r="E3" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F3" s="11">
         <v>50.95</v>
@@ -59107,14 +59545,14 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="9">
-        <v>50</v>
-      </c>
+      <c r="V3" s="9"/>
       <c r="W3" s="9">
         <v>50</v>
       </c>
       <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="15">
@@ -59129,7 +59567,7 @@
       </c>
       <c r="E4" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F4" s="11">
         <v>50.95</v>
@@ -59152,7 +59590,7 @@
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <v>50</v>
@@ -59173,7 +59611,7 @@
       </c>
       <c r="E5" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="F5" s="11">
         <v>50.95</v>
@@ -59236,11 +59674,11 @@
       </c>
       <c r="L6" s="17">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="M6" s="17">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>25</v>
@@ -59259,7 +59697,7 @@
       </c>
       <c r="S6" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T6" s="6" t="s">
         <v>256</v>
@@ -59288,7 +59726,7 @@
       </c>
       <c r="E7" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F7" s="11">
         <v>50.95</v>
@@ -59332,7 +59770,7 @@
       </c>
       <c r="E8" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F8" s="11">
         <v>50.95</v>
@@ -59376,7 +59814,7 @@
       </c>
       <c r="E9" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F9" s="11">
         <v>50.95</v>
@@ -59439,11 +59877,11 @@
       </c>
       <c r="L10" s="17">
         <f ca="1">TODAY()+27</f>
-        <v>44391</v>
+        <v>45074</v>
       </c>
       <c r="M10" s="17">
         <f ca="1">TODAY()+30</f>
-        <v>44394</v>
+        <v>45077</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>25</v>
@@ -59462,7 +59900,7 @@
       </c>
       <c r="S10" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>256</v>
@@ -59491,7 +59929,7 @@
       </c>
       <c r="E11" s="5">
         <f ca="1">TODAY()+27</f>
-        <v>44391</v>
+        <v>45074</v>
       </c>
       <c r="F11" s="11">
         <v>50.95</v>
@@ -59533,7 +59971,7 @@
       </c>
       <c r="E12" s="5">
         <f ca="1">TODAY()+28</f>
-        <v>44392</v>
+        <v>45075</v>
       </c>
       <c r="F12" s="11">
         <v>50.95</v>
@@ -59575,7 +60013,7 @@
       </c>
       <c r="E13" s="5">
         <f ca="1">TODAY()+29</f>
-        <v>44393</v>
+        <v>45076</v>
       </c>
       <c r="F13" s="11">
         <v>50.95</v>
@@ -59636,11 +60074,11 @@
       </c>
       <c r="L14" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M14" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>25</v>
@@ -59659,7 +60097,7 @@
       </c>
       <c r="S14" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>256</v>
@@ -59688,7 +60126,7 @@
       </c>
       <c r="E15" s="5">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="F15" s="11">
         <v>50.95</v>
@@ -59711,13 +60149,15 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W15" s="9">
         <v>52</v>
       </c>
       <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15">
@@ -59732,7 +60172,7 @@
       </c>
       <c r="E16" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="F16" s="11">
         <v>50.95</v>
@@ -59755,13 +60195,15 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W16" s="9">
         <v>50</v>
       </c>
       <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" ht="15">
@@ -59776,7 +60218,7 @@
       </c>
       <c r="E17" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F17" s="11">
         <v>50.95</v>
@@ -59799,13 +60241,15 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W17" s="9">
         <v>50</v>
       </c>
       <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="15">
@@ -59839,11 +60283,11 @@
       </c>
       <c r="L18" s="17">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="M18" s="17">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>25</v>
@@ -59862,7 +60306,7 @@
       </c>
       <c r="S18" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>256</v>
@@ -59891,7 +60335,7 @@
       </c>
       <c r="E19" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F19" s="11">
         <v>50.95</v>
@@ -59914,13 +60358,15 @@
       <c r="T19" s="6"/>
       <c r="U19" s="11"/>
       <c r="V19" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W19" s="9">
         <v>50</v>
       </c>
       <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="15">
@@ -59935,7 +60381,7 @@
       </c>
       <c r="E20" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F20" s="11">
         <v>50.95</v>
@@ -59958,13 +60404,15 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W20" s="9">
         <v>50</v>
       </c>
       <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="Y20" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="15">
@@ -59979,7 +60427,7 @@
       </c>
       <c r="E21" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F21" s="11">
         <v>50.95</v>
@@ -60002,13 +60450,15 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W21" s="9">
         <v>52</v>
       </c>
       <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" ht="26.25">
@@ -60042,11 +60492,11 @@
       </c>
       <c r="L22" s="20">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M22" s="20">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>25</v>
@@ -60065,7 +60515,7 @@
       </c>
       <c r="S22" s="25">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T22" s="21" t="s">
         <v>256</v>
@@ -60094,7 +60544,7 @@
       </c>
       <c r="E23" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F23" s="11">
         <v>50.95</v>
@@ -60117,13 +60567,15 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9">
         <v>50</v>
       </c>
       <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="15">
@@ -60138,7 +60590,7 @@
       </c>
       <c r="E24" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F24" s="11">
         <v>50.95</v>
@@ -60161,13 +60613,15 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
         <v>50</v>
       </c>
       <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" ht="15">
@@ -60182,7 +60636,7 @@
       </c>
       <c r="E25" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F25" s="11">
         <v>50.95</v>
@@ -60209,7 +60663,9 @@
         <v>0</v>
       </c>
       <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
@@ -60243,11 +60699,11 @@
       </c>
       <c r="L26" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M26" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>25</v>
@@ -60266,7 +60722,7 @@
       </c>
       <c r="S26" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T26" s="6" t="s">
         <v>256</v>
@@ -60297,7 +60753,7 @@
       </c>
       <c r="E27" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F27" s="11">
         <v>50.95</v>
@@ -60337,7 +60793,7 @@
       </c>
       <c r="E28" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F28" s="11">
         <v>50.95</v>
@@ -60377,7 +60833,7 @@
       </c>
       <c r="E29" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F29" s="11">
         <v>50.95</v>
@@ -60436,11 +60892,11 @@
       </c>
       <c r="L30" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M30" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>25</v>
@@ -60459,7 +60915,7 @@
       </c>
       <c r="S30" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>256</v>
@@ -60490,7 +60946,7 @@
       </c>
       <c r="E31" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F31" s="11">
         <v>50.95</v>
@@ -60530,7 +60986,7 @@
       </c>
       <c r="E32" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F32" s="11">
         <v>50.95</v>
@@ -60570,7 +61026,7 @@
       </c>
       <c r="E33" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F33" s="11">
         <v>50.95</v>
@@ -60629,11 +61085,11 @@
       </c>
       <c r="L34" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M34" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>44337</v>
+        <v>45020</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>25</v>
@@ -60652,7 +61108,7 @@
       </c>
       <c r="S34" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>256</v>
@@ -60683,7 +61139,7 @@
       </c>
       <c r="E35" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F35" s="11">
         <v>50.95</v>
@@ -60723,7 +61179,7 @@
       </c>
       <c r="E36" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F36" s="11">
         <v>50.95</v>
@@ -60763,7 +61219,7 @@
       </c>
       <c r="E37" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F37" s="11">
         <v>50.95</v>
@@ -60822,11 +61278,11 @@
       </c>
       <c r="L38" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M38" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>25</v>
@@ -60845,7 +61301,7 @@
       </c>
       <c r="S38" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T38" s="6" t="s">
         <v>256</v>
@@ -60874,7 +61330,7 @@
       </c>
       <c r="E39" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F39" s="6">
         <v>100.67</v>
@@ -60897,13 +61353,15 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W39" s="11">
         <v>100</v>
       </c>
       <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z39" s="9"/>
     </row>
     <row r="40" spans="1:26" ht="15">
@@ -60918,7 +61376,7 @@
       </c>
       <c r="E40" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F40" s="6">
         <v>100.67</v>
@@ -60941,13 +61399,15 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W40" s="11">
         <v>100</v>
       </c>
       <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="1:26" ht="15">
@@ -60999,7 +61459,7 @@
       </c>
       <c r="E42" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F42" s="6">
         <v>120.67</v>
@@ -61043,7 +61503,7 @@
       </c>
       <c r="E43" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F43" s="6">
         <v>120.67</v>
@@ -61124,7 +61584,7 @@
       </c>
       <c r="E45" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F45" s="6">
         <v>120.67</v>
@@ -61168,7 +61628,7 @@
       </c>
       <c r="E46" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F46" s="6">
         <v>120.67</v>
@@ -61231,11 +61691,11 @@
       </c>
       <c r="L47" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M47" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>25</v>
@@ -61254,7 +61714,7 @@
       </c>
       <c r="S47" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T47" s="6" t="s">
         <v>256</v>
@@ -61283,7 +61743,7 @@
       </c>
       <c r="E48" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F48" s="6">
         <v>100.67</v>
@@ -61327,7 +61787,7 @@
       </c>
       <c r="E49" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F49" s="6">
         <v>100.67</v>
@@ -61410,7 +61870,7 @@
       </c>
       <c r="E51" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F51" s="6">
         <v>100.67</v>
@@ -61454,7 +61914,7 @@
       </c>
       <c r="E52" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F52" s="6">
         <v>100</v>
@@ -61535,7 +61995,7 @@
       </c>
       <c r="E54" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F54" s="6">
         <v>100.67</v>
@@ -61583,7 +62043,7 @@
       </c>
       <c r="E55" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F55" s="6">
         <v>100</v>
@@ -61650,11 +62110,11 @@
       </c>
       <c r="L56" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M56" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>25</v>
@@ -61673,7 +62133,7 @@
       </c>
       <c r="S56" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>256</v>
@@ -61702,7 +62162,7 @@
       </c>
       <c r="E57" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F57" s="6">
         <v>100.67</v>
@@ -61748,7 +62208,7 @@
       </c>
       <c r="E58" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F58" s="6">
         <v>100.67</v>
@@ -61833,7 +62293,7 @@
       </c>
       <c r="E60" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F60" s="6">
         <v>80.67</v>
@@ -61881,7 +62341,7 @@
       </c>
       <c r="E61" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F61" s="6">
         <v>80.67</v>
@@ -61966,7 +62426,7 @@
       </c>
       <c r="E63" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F63" s="6">
         <v>80.67</v>
@@ -62014,7 +62474,7 @@
       </c>
       <c r="E64" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F64" s="6">
         <v>80.67</v>
@@ -62081,11 +62541,11 @@
       </c>
       <c r="L65" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M65" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>25</v>
@@ -62104,7 +62564,7 @@
       </c>
       <c r="S65" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T65" s="6" t="s">
         <v>256</v>
@@ -62133,7 +62593,7 @@
       </c>
       <c r="E66" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F66" s="6">
         <v>100.67</v>
@@ -62177,7 +62637,7 @@
       </c>
       <c r="E67" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F67" s="6">
         <v>100.67</v>
@@ -62297,7 +62757,7 @@
       </c>
       <c r="E70" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F70" s="6">
         <v>80.67</v>
@@ -62341,7 +62801,7 @@
       </c>
       <c r="E71" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F71" s="6">
         <v>80.67</v>
@@ -62422,7 +62882,7 @@
       </c>
       <c r="E73" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F73" s="6">
         <v>80.67</v>
@@ -62466,7 +62926,7 @@
       </c>
       <c r="E74" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F74" s="6">
         <v>80.67</v>
@@ -62529,11 +62989,11 @@
       </c>
       <c r="L75" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M75" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>25</v>
@@ -62552,7 +63012,7 @@
       </c>
       <c r="S75" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T75" s="6" t="s">
         <v>256</v>
@@ -62581,7 +63041,7 @@
       </c>
       <c r="E76" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F76" s="6">
         <v>100.67</v>
@@ -62624,7 +63084,7 @@
       </c>
       <c r="E77" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F77" s="6">
         <v>100.67</v>
@@ -62741,7 +63201,7 @@
       </c>
       <c r="E80" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F80" s="6">
         <v>120.67</v>
@@ -62784,7 +63244,7 @@
       </c>
       <c r="E81" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F81" s="6">
         <v>120.67</v>
@@ -62864,7 +63324,7 @@
       </c>
       <c r="E83" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F83" s="6">
         <v>120.67</v>
@@ -62912,7 +63372,7 @@
       </c>
       <c r="E84" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F84" s="6">
         <v>120.67</v>
@@ -62979,11 +63439,11 @@
       </c>
       <c r="L85" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M85" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>25</v>
@@ -63002,7 +63462,7 @@
       </c>
       <c r="S85" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T85" s="6" t="s">
         <v>256</v>
@@ -63031,7 +63491,7 @@
       </c>
       <c r="E86" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F86" s="6">
         <v>100.67</v>
@@ -63074,7 +63534,7 @@
       </c>
       <c r="E87" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F87" s="6">
         <v>100.67</v>
@@ -63193,7 +63653,7 @@
       </c>
       <c r="E90" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F90" s="6">
         <v>100.67</v>
@@ -63241,7 +63701,7 @@
       </c>
       <c r="E91" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F91" s="6">
         <v>100.67</v>
@@ -63308,11 +63768,11 @@
       </c>
       <c r="L92" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M92" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>25</v>
@@ -63331,7 +63791,7 @@
       </c>
       <c r="S92" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T92" s="6" t="s">
         <v>256</v>
@@ -63360,7 +63820,7 @@
       </c>
       <c r="E93" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F93" s="6">
         <v>100.67</v>
@@ -63403,7 +63863,7 @@
       </c>
       <c r="E94" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F94" s="6">
         <v>100.67</v>
@@ -63520,7 +63980,7 @@
       </c>
       <c r="E97" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F97" s="6">
         <v>100.67</v>
@@ -63566,7 +64026,7 @@
       </c>
       <c r="E98" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F98" s="6">
         <v>100.67</v>
@@ -63651,7 +64111,7 @@
       </c>
       <c r="E100" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F100" s="6">
         <v>80.67</v>
@@ -63694,7 +64154,7 @@
       </c>
       <c r="E101" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F101" s="6">
         <v>80.67</v>
@@ -63774,7 +64234,7 @@
       </c>
       <c r="F103" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>44366</v>
+        <v>45049</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="16">
@@ -63791,11 +64251,11 @@
       </c>
       <c r="L103" s="17">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="M103" s="17">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N103" s="6" t="s">
         <v>25</v>
@@ -63814,7 +64274,7 @@
       </c>
       <c r="S103" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T103" s="6" t="s">
         <v>256</v>
@@ -63843,7 +64303,7 @@
       </c>
       <c r="E104" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F104" s="6">
         <v>100.67</v>
@@ -63887,7 +64347,7 @@
       </c>
       <c r="E105" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F105" s="6">
         <v>100.67</v>
@@ -63970,7 +64430,7 @@
       </c>
       <c r="E107" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F107" s="6">
         <v>100.67</v>
@@ -64016,7 +64476,7 @@
       </c>
       <c r="E108" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F108" s="6">
         <v>100.67</v>
@@ -64062,7 +64522,7 @@
       </c>
       <c r="E109" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F109" s="6">
         <v>100.67</v>
@@ -64106,7 +64566,7 @@
       </c>
       <c r="E110" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F110" s="6">
         <v>100.67</v>
@@ -64169,11 +64629,11 @@
       </c>
       <c r="L111" s="17">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="M111" s="17">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>25</v>
@@ -64192,7 +64652,7 @@
       </c>
       <c r="S111" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T111" s="6" t="s">
         <v>256</v>
@@ -64223,7 +64683,7 @@
       </c>
       <c r="E112" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F112" s="6">
         <v>100.67</v>
@@ -64267,7 +64727,7 @@
       </c>
       <c r="E113" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F113" s="6">
         <v>100.67</v>
@@ -64311,7 +64771,7 @@
       </c>
       <c r="E114" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F114" s="6">
         <v>100.67</v>
@@ -64355,7 +64815,7 @@
       </c>
       <c r="E115" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F115" s="6">
         <v>100.67</v>
@@ -64399,7 +64859,7 @@
       </c>
       <c r="E116" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F116" s="6">
         <v>100.67</v>
@@ -64478,7 +64938,7 @@
       </c>
       <c r="E118" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F118" s="6">
         <v>100.67</v>
@@ -64522,7 +64982,7 @@
       </c>
       <c r="E119" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F119" s="6">
         <v>100.67</v>
@@ -64566,7 +65026,7 @@
       </c>
       <c r="E120" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F120" s="6">
         <v>100.67</v>
@@ -64610,7 +65070,7 @@
       </c>
       <c r="E121" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F121" s="6">
         <v>100.67</v>
@@ -64654,7 +65114,7 @@
       </c>
       <c r="E122" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F122" s="6">
         <v>100.67</v>
@@ -64698,7 +65158,7 @@
       </c>
       <c r="E123" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F123" s="6">
         <v>100.67</v>
@@ -64742,7 +65202,7 @@
       </c>
       <c r="E124" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F124" s="6">
         <v>100.67</v>
@@ -64786,7 +65246,7 @@
       </c>
       <c r="E125" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F125" s="6">
         <v>100.67</v>
@@ -64830,7 +65290,7 @@
       </c>
       <c r="E126" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F126" s="6">
         <v>100.67</v>
@@ -64872,7 +65332,7 @@
       </c>
       <c r="E127" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F127" s="6">
         <v>100.67</v>
@@ -64955,7 +65415,7 @@
       </c>
       <c r="E129" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F129" s="6">
         <v>100.67</v>
@@ -64998,7 +65458,7 @@
       </c>
       <c r="E130" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F130" s="6">
         <v>100.67</v>
@@ -65041,7 +65501,7 @@
       </c>
       <c r="E131" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F131" s="6">
         <v>100.67</v>
@@ -65084,7 +65544,7 @@
       </c>
       <c r="E132" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F132" s="6">
         <v>100.67</v>
@@ -65125,7 +65585,7 @@
       </c>
       <c r="E133" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F133" s="6">
         <v>100.67</v>
@@ -65227,11 +65687,11 @@
       </c>
       <c r="L135" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M135" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N135" s="6" t="s">
         <v>25</v>
@@ -65250,7 +65710,7 @@
       </c>
       <c r="S135" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T135" s="6" t="s">
         <v>256</v>
@@ -65276,7 +65736,7 @@
       </c>
       <c r="E136" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F136" s="6">
         <v>100.67</v>
@@ -65320,7 +65780,7 @@
       </c>
       <c r="E137" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F137" s="6">
         <v>100.67</v>
@@ -65383,11 +65843,11 @@
       </c>
       <c r="L138" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M138" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N138" s="6" t="s">
         <v>25</v>
@@ -65406,7 +65866,7 @@
       </c>
       <c r="S138" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T138" s="6" t="s">
         <v>256</v>
@@ -65434,7 +65894,7 @@
       </c>
       <c r="E139" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F139" s="6">
         <v>100.67</v>
@@ -65478,7 +65938,7 @@
       </c>
       <c r="E140" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F140" s="6">
         <v>100.67</v>
@@ -65522,7 +65982,7 @@
       </c>
       <c r="E141" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F141" s="6">
         <v>100.67</v>
@@ -65583,11 +66043,11 @@
       </c>
       <c r="L142" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="M142" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N142" s="6" t="s">
         <v>25</v>
@@ -65606,7 +66066,7 @@
       </c>
       <c r="S142" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T142" s="6" t="s">
         <v>256</v>
@@ -65634,7 +66094,7 @@
       </c>
       <c r="E143" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F143" s="6">
         <v>100.67</v>
@@ -65678,7 +66138,7 @@
       </c>
       <c r="E144" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F144" s="6">
         <v>100.67</v>
@@ -65769,11 +66229,11 @@
       </c>
       <c r="L146" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M146" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>106</v>
@@ -65792,7 +66252,7 @@
       </c>
       <c r="S146" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T146" s="6" t="s">
         <v>256</v>
@@ -65820,7 +66280,7 @@
       </c>
       <c r="E147" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F147" s="6">
         <v>100.67</v>
@@ -65868,7 +66328,7 @@
       </c>
       <c r="E148" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F148" s="6">
         <v>100.67</v>
@@ -65935,11 +66395,11 @@
       </c>
       <c r="L149" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M149" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N149" s="32" t="s">
         <v>106</v>
@@ -65958,7 +66418,7 @@
       </c>
       <c r="S149" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T149" s="6" t="s">
         <v>256</v>
@@ -65986,7 +66446,7 @@
       </c>
       <c r="E150" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F150" s="6">
         <v>100.67</v>
@@ -66030,7 +66490,7 @@
       </c>
       <c r="E151" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F151" s="6">
         <v>100.67</v>
@@ -66074,7 +66534,7 @@
       </c>
       <c r="E152" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F152" s="6">
         <v>100.67</v>
@@ -66135,11 +66595,11 @@
       </c>
       <c r="L153" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="M153" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N153" s="32" t="s">
         <v>106</v>
@@ -66158,7 +66618,7 @@
       </c>
       <c r="S153" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T153" s="6" t="s">
         <v>256</v>
@@ -66186,7 +66646,7 @@
       </c>
       <c r="E154" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F154" s="6">
         <v>100.67</v>
@@ -66230,7 +66690,7 @@
       </c>
       <c r="E155" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F155" s="6">
         <v>100.67</v>
@@ -66321,11 +66781,11 @@
       </c>
       <c r="L157" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M157" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N157" s="32" t="s">
         <v>106</v>
@@ -66344,7 +66804,7 @@
       </c>
       <c r="S157" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T157" s="6" t="s">
         <v>256</v>
@@ -66372,7 +66832,7 @@
       </c>
       <c r="E158" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F158" s="6">
         <v>100.67</v>
@@ -66416,7 +66876,7 @@
       </c>
       <c r="E159" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F159" s="6">
         <v>100.67</v>
@@ -66539,11 +66999,11 @@
       </c>
       <c r="L162" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="M162" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N162" s="32" t="s">
         <v>106</v>
@@ -66562,7 +67022,7 @@
       </c>
       <c r="S162" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T162" s="6" t="s">
         <v>256</v>
@@ -66590,7 +67050,7 @@
       </c>
       <c r="E163" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F163" s="6">
         <v>100.67</v>
@@ -66634,7 +67094,7 @@
       </c>
       <c r="E164" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F164" s="6">
         <v>100.67</v>
@@ -66678,7 +67138,7 @@
       </c>
       <c r="E165" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F165" s="6">
         <v>100.67</v>
@@ -66739,11 +67199,11 @@
       </c>
       <c r="L166" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="M166" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N166" s="32" t="s">
         <v>106</v>
@@ -66762,7 +67222,7 @@
       </c>
       <c r="S166" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T166" s="6" t="s">
         <v>256</v>
@@ -66790,7 +67250,7 @@
       </c>
       <c r="E167" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F167" s="6">
         <v>100.67</v>
@@ -66836,7 +67296,7 @@
       </c>
       <c r="E168" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F168" s="6">
         <v>100.67</v>
@@ -66929,11 +67389,11 @@
       </c>
       <c r="L170" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="M170" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>44365</v>
+        <v>45048</v>
       </c>
       <c r="N170" s="32" t="s">
         <v>106</v>
@@ -66952,7 +67412,7 @@
       </c>
       <c r="S170" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T170" s="6" t="s">
         <v>256</v>
@@ -66980,7 +67440,7 @@
       </c>
       <c r="E171" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F171" s="6">
         <v>100.67</v>
@@ -67023,7 +67483,7 @@
       </c>
       <c r="E172" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="F172" s="6">
         <v>100.67</v>
@@ -67083,11 +67543,11 @@
       </c>
       <c r="L173" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>44358</v>
+        <v>45041</v>
       </c>
       <c r="M173" s="5">
         <f ca="1">TODAY()</f>
-        <v>44364</v>
+        <v>45047</v>
       </c>
       <c r="N173" s="6" t="s">
         <v>25</v>
@@ -67106,7 +67566,7 @@
       </c>
       <c r="S173" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T173" s="6" t="s">
         <v>256</v>
@@ -67135,7 +67595,7 @@
       </c>
       <c r="E174" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>44358</v>
+        <v>45041</v>
       </c>
       <c r="F174" s="6">
         <v>100.4</v>
@@ -67177,7 +67637,7 @@
       </c>
       <c r="E175" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>44359</v>
+        <v>45042</v>
       </c>
       <c r="F175" s="6">
         <v>100.95</v>
@@ -67219,7 +67679,7 @@
       </c>
       <c r="E176" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -67261,7 +67721,7 @@
       </c>
       <c r="E177" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F177" s="6">
         <v>0.95</v>
@@ -67303,7 +67763,7 @@
       </c>
       <c r="E178" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
@@ -67347,7 +67807,7 @@
       </c>
       <c r="E179" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F179" s="6">
         <v>0</v>
@@ -67426,7 +67886,7 @@
       </c>
       <c r="E181" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>44358</v>
+        <v>45041</v>
       </c>
       <c r="F181" s="6">
         <v>100.4</v>
@@ -67470,7 +67930,7 @@
       </c>
       <c r="E182" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>44359</v>
+        <v>45042</v>
       </c>
       <c r="F182" s="6">
         <v>100.95</v>
@@ -67514,7 +67974,7 @@
       </c>
       <c r="E183" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F183" s="6">
         <v>0</v>
@@ -67558,7 +68018,7 @@
       </c>
       <c r="E184" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F184" s="6">
         <v>0.95</v>
@@ -67602,7 +68062,7 @@
       </c>
       <c r="E185" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F185" s="6">
         <v>0</v>
@@ -67646,7 +68106,7 @@
       </c>
       <c r="E186" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>218</v>
@@ -67727,7 +68187,7 @@
       </c>
       <c r="E188" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>44358</v>
+        <v>45041</v>
       </c>
       <c r="F188" s="6">
         <v>100.4</v>
@@ -67771,7 +68231,7 @@
       </c>
       <c r="E189" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>44359</v>
+        <v>45042</v>
       </c>
       <c r="F189" s="6">
         <v>100.95</v>
@@ -67815,7 +68275,7 @@
       </c>
       <c r="E190" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>44360</v>
+        <v>45043</v>
       </c>
       <c r="F190" s="6">
         <v>0</v>
@@ -67859,7 +68319,7 @@
       </c>
       <c r="E191" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>44361</v>
+        <v>45044</v>
       </c>
       <c r="F191" s="6">
         <v>0.95</v>
@@ -67903,7 +68363,7 @@
       </c>
       <c r="E192" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>44362</v>
+        <v>45045</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -67947,7 +68407,7 @@
       </c>
       <c r="E193" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>44363</v>
+        <v>45046</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>218</v>
@@ -68010,11 +68470,11 @@
       </c>
       <c r="L194" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M194" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N194" s="6" t="s">
         <v>25</v>
@@ -68033,7 +68493,7 @@
       </c>
       <c r="S194" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T194" s="6" t="s">
         <v>256</v>
@@ -68062,7 +68522,7 @@
       </c>
       <c r="E195" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F195" s="6">
         <v>100.67</v>
@@ -68106,7 +68566,7 @@
       </c>
       <c r="E196" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F196" s="6">
         <v>100.67</v>
@@ -68189,7 +68649,7 @@
       </c>
       <c r="E198" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F198" s="6">
         <v>100.67</v>
@@ -68233,7 +68693,7 @@
       </c>
       <c r="E199" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F199" s="6">
         <v>100.67</v>
@@ -68296,11 +68756,11 @@
       </c>
       <c r="L200" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="M200" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>44336</v>
+        <v>45019</v>
       </c>
       <c r="N200" s="6" t="s">
         <v>25</v>
@@ -68319,7 +68779,7 @@
       </c>
       <c r="S200" s="23">
         <f ca="1">DATE(YEAR(TODAY()),1,1)</f>
-        <v>44197</v>
+        <v>44927</v>
       </c>
       <c r="T200" s="6" t="s">
         <v>256</v>
@@ -68348,7 +68808,7 @@
       </c>
       <c r="E201" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F201" s="6">
         <v>100.67</v>
@@ -68392,7 +68852,7 @@
       </c>
       <c r="E202" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F202" s="6">
         <v>100.67</v>
@@ -68475,7 +68935,7 @@
       </c>
       <c r="E204" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>44334</v>
+        <v>45017</v>
       </c>
       <c r="F204" s="6">
         <v>100.67</v>
@@ -68519,7 +68979,7 @@
       </c>
       <c r="E205" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>44335</v>
+        <v>45018</v>
       </c>
       <c r="F205" s="6">
         <v>100.67</v>

--- a/ProductLibrary/eLoyaltyV3/TestData/Points_Earning_Rule_Service_TestDataHotelOrigami_Service.xlsx
+++ b/ProductLibrary/eLoyaltyV3/TestData/Points_Earning_Rule_Service_TestDataHotelOrigami_Service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msridhar\Source\Repos\Cendyn.AutomationFramework\ProductLibrary\eLoyaltyV3\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9930F-6BEA-4AD3-88F3-707A8F0C302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2144E6E-872E-405B-AB39-68705F3E16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="2400" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules_Setup" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="289">
   <si>
     <r>
       <rPr>
@@ -55763,11 +55763,11 @@
       </c>
       <c r="I2" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J2" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>25</v>
@@ -55862,11 +55862,11 @@
       </c>
       <c r="I3" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J3" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>25</v>
@@ -55957,11 +55957,11 @@
       </c>
       <c r="I4" s="46">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="J4" s="46">
         <f ca="1">TODAY()-26</f>
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>25</v>
@@ -56054,11 +56054,11 @@
       </c>
       <c r="I5" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J5" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>25</v>
@@ -56149,11 +56149,11 @@
       </c>
       <c r="I6" s="46">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="J6" s="46">
         <f ca="1">TODAY()-26</f>
-        <v>45021</v>
+        <v>45036</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>25</v>
@@ -56242,11 +56242,11 @@
       </c>
       <c r="I7" s="46">
         <f ca="1">TODAY()-23</f>
-        <v>45024</v>
+        <v>45039</v>
       </c>
       <c r="J7" s="46">
         <f ca="1">TODAY()-22</f>
-        <v>45025</v>
+        <v>45040</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>25</v>
@@ -56335,11 +56335,11 @@
       </c>
       <c r="I8" s="46">
         <f ca="1">TODAY()-20</f>
-        <v>45027</v>
+        <v>45042</v>
       </c>
       <c r="J8" s="46">
         <f ca="1">TODAY()-19</f>
-        <v>45028</v>
+        <v>45043</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>25</v>
@@ -56432,11 +56432,11 @@
       </c>
       <c r="I9" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J9" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>25</v>
@@ -56527,11 +56527,11 @@
       </c>
       <c r="I10" s="46">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="J10" s="46">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>25</v>
@@ -56624,11 +56624,11 @@
       </c>
       <c r="I11" s="46">
         <f t="shared" ref="I11:I23" ca="1" si="2">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J11" s="46">
         <f t="shared" ref="J11:J24" ca="1" si="3">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>25</v>
@@ -56719,11 +56719,11 @@
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>25</v>
@@ -56812,11 +56812,11 @@
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>25</v>
@@ -56909,11 +56909,11 @@
       </c>
       <c r="I14" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J14" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>25</v>
@@ -57008,11 +57008,11 @@
       </c>
       <c r="I15" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J15" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>106</v>
@@ -57107,11 +57107,11 @@
       </c>
       <c r="I16" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J16" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>25</v>
@@ -57206,11 +57206,11 @@
       </c>
       <c r="I17" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J17" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>25</v>
@@ -57305,11 +57305,11 @@
       </c>
       <c r="I18" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J18" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>25</v>
@@ -57404,11 +57404,11 @@
       </c>
       <c r="I19" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J19" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>25</v>
@@ -57503,11 +57503,11 @@
       </c>
       <c r="I20" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J20" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K20" s="41" t="s">
         <v>120</v>
@@ -57602,11 +57602,11 @@
       </c>
       <c r="I21" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>25</v>
@@ -57699,11 +57699,11 @@
       </c>
       <c r="I22" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>25</v>
@@ -57796,11 +57796,11 @@
       </c>
       <c r="I23" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>25</v>
@@ -57895,11 +57895,11 @@
       </c>
       <c r="I24" s="46">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J24" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>25</v>
@@ -57994,11 +57994,11 @@
       </c>
       <c r="I25" s="46">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="J25" s="46">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>25</v>
@@ -58093,11 +58093,11 @@
       </c>
       <c r="I26" s="46">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="J26" s="46">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>25</v>
@@ -58192,11 +58192,11 @@
       </c>
       <c r="I27" s="46">
         <f t="shared" ref="I27:I35" ca="1" si="4">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J27" s="46">
         <f t="shared" ref="J27:J35" ca="1" si="5">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>25</v>
@@ -58289,11 +58289,11 @@
       </c>
       <c r="I28" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J28" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K28" s="41" t="s">
         <v>120</v>
@@ -58386,11 +58386,11 @@
       </c>
       <c r="I29" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J29" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>25</v>
@@ -58483,11 +58483,11 @@
       </c>
       <c r="I30" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>25</v>
@@ -58580,11 +58580,11 @@
       </c>
       <c r="I31" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>25</v>
@@ -58677,11 +58677,11 @@
       </c>
       <c r="I32" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>25</v>
@@ -58774,11 +58774,11 @@
       </c>
       <c r="I33" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>25</v>
@@ -58871,11 +58871,11 @@
       </c>
       <c r="I34" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>25</v>
@@ -58968,11 +58968,11 @@
       </c>
       <c r="I35" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" ca="1" si="5"/>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>25</v>
@@ -59164,11 +59164,11 @@
       </c>
       <c r="I37" s="46">
         <f ca="1">TODAY()+364</f>
-        <v>45411</v>
+        <v>45426</v>
       </c>
       <c r="J37" s="46">
         <f ca="1">TODAY()+365</f>
-        <v>45412</v>
+        <v>45427</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>25</v>
@@ -59471,11 +59471,11 @@
       </c>
       <c r="L2" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M2" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>25</v>
@@ -59523,7 +59523,7 @@
       </c>
       <c r="E3" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F3" s="11">
         <v>50.95</v>
@@ -59545,13 +59545,15 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
       <c r="W3" s="9">
         <v>50</v>
       </c>
       <c r="X3" s="9"/>
       <c r="Y3" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z3" s="9"/>
     </row>
@@ -59567,7 +59569,7 @@
       </c>
       <c r="E4" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F4" s="11">
         <v>50.95</v>
@@ -59596,7 +59598,9 @@
         <v>50</v>
       </c>
       <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+      <c r="Y4" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="15">
@@ -59611,7 +59615,7 @@
       </c>
       <c r="E5" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="F5" s="11">
         <v>50.95</v>
@@ -59634,13 +59638,15 @@
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W5" s="9">
         <v>50</v>
       </c>
       <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="Y5" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15">
@@ -59674,11 +59680,11 @@
       </c>
       <c r="L6" s="17">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="M6" s="17">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>25</v>
@@ -59726,7 +59732,7 @@
       </c>
       <c r="E7" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F7" s="11">
         <v>50.95</v>
@@ -59749,13 +59755,15 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W7" s="9">
         <v>50</v>
       </c>
       <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="15">
@@ -59770,7 +59778,7 @@
       </c>
       <c r="E8" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F8" s="11">
         <v>50.95</v>
@@ -59793,13 +59801,15 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W8" s="9">
         <v>50</v>
       </c>
       <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="15">
@@ -59814,7 +59824,7 @@
       </c>
       <c r="E9" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F9" s="11">
         <v>50.95</v>
@@ -59837,13 +59847,15 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W9" s="9">
         <v>50</v>
       </c>
       <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15">
@@ -59877,11 +59889,11 @@
       </c>
       <c r="L10" s="17">
         <f ca="1">TODAY()+27</f>
-        <v>45074</v>
+        <v>45089</v>
       </c>
       <c r="M10" s="17">
         <f ca="1">TODAY()+30</f>
-        <v>45077</v>
+        <v>45092</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>25</v>
@@ -59929,7 +59941,7 @@
       </c>
       <c r="E11" s="5">
         <f ca="1">TODAY()+27</f>
-        <v>45074</v>
+        <v>45089</v>
       </c>
       <c r="F11" s="11">
         <v>50.95</v>
@@ -59956,7 +59968,9 @@
         <v>0</v>
       </c>
       <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="15">
@@ -59971,7 +59985,7 @@
       </c>
       <c r="E12" s="5">
         <f ca="1">TODAY()+28</f>
-        <v>45075</v>
+        <v>45090</v>
       </c>
       <c r="F12" s="11">
         <v>50.95</v>
@@ -59998,7 +60012,9 @@
         <v>0</v>
       </c>
       <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15">
@@ -60013,7 +60029,7 @@
       </c>
       <c r="E13" s="5">
         <f ca="1">TODAY()+29</f>
-        <v>45076</v>
+        <v>45091</v>
       </c>
       <c r="F13" s="11">
         <v>50.95</v>
@@ -60040,7 +60056,9 @@
         <v>0</v>
       </c>
       <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15">
@@ -60074,11 +60092,11 @@
       </c>
       <c r="L14" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M14" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>25</v>
@@ -60126,7 +60144,7 @@
       </c>
       <c r="E15" s="5">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="F15" s="11">
         <v>50.95</v>
@@ -60172,7 +60190,7 @@
       </c>
       <c r="E16" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="F16" s="11">
         <v>50.95</v>
@@ -60218,7 +60236,7 @@
       </c>
       <c r="E17" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F17" s="11">
         <v>50.95</v>
@@ -60283,11 +60301,11 @@
       </c>
       <c r="L18" s="17">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="M18" s="17">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>25</v>
@@ -60335,7 +60353,7 @@
       </c>
       <c r="E19" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F19" s="11">
         <v>50.95</v>
@@ -60381,7 +60399,7 @@
       </c>
       <c r="E20" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F20" s="11">
         <v>50.95</v>
@@ -60427,7 +60445,7 @@
       </c>
       <c r="E21" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F21" s="11">
         <v>50.95</v>
@@ -60492,11 +60510,11 @@
       </c>
       <c r="L22" s="20">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M22" s="20">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>25</v>
@@ -60544,7 +60562,7 @@
       </c>
       <c r="E23" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F23" s="11">
         <v>50.95</v>
@@ -60590,7 +60608,7 @@
       </c>
       <c r="E24" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F24" s="11">
         <v>50.95</v>
@@ -60636,7 +60654,7 @@
       </c>
       <c r="E25" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F25" s="11">
         <v>50.95</v>
@@ -60699,11 +60717,11 @@
       </c>
       <c r="L26" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M26" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>25</v>
@@ -60753,7 +60771,7 @@
       </c>
       <c r="E27" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F27" s="11">
         <v>50.95</v>
@@ -60793,7 +60811,7 @@
       </c>
       <c r="E28" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F28" s="11">
         <v>50.95</v>
@@ -60833,7 +60851,7 @@
       </c>
       <c r="E29" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F29" s="11">
         <v>50.95</v>
@@ -60892,11 +60910,11 @@
       </c>
       <c r="L30" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M30" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>25</v>
@@ -60946,7 +60964,7 @@
       </c>
       <c r="E31" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F31" s="11">
         <v>50.95</v>
@@ -60986,7 +61004,7 @@
       </c>
       <c r="E32" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F32" s="11">
         <v>50.95</v>
@@ -61026,7 +61044,7 @@
       </c>
       <c r="E33" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F33" s="11">
         <v>50.95</v>
@@ -61085,11 +61103,11 @@
       </c>
       <c r="L34" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M34" s="17">
         <f ca="1">TODAY()-27</f>
-        <v>45020</v>
+        <v>45035</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>25</v>
@@ -61139,7 +61157,7 @@
       </c>
       <c r="E35" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F35" s="11">
         <v>50.95</v>
@@ -61179,7 +61197,7 @@
       </c>
       <c r="E36" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F36" s="11">
         <v>50.95</v>
@@ -61219,7 +61237,7 @@
       </c>
       <c r="E37" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F37" s="11">
         <v>50.95</v>
@@ -61278,11 +61296,11 @@
       </c>
       <c r="L38" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M38" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>25</v>
@@ -61330,7 +61348,7 @@
       </c>
       <c r="E39" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F39" s="6">
         <v>100.67</v>
@@ -61376,7 +61394,7 @@
       </c>
       <c r="E40" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F40" s="6">
         <v>100.67</v>
@@ -61459,7 +61477,7 @@
       </c>
       <c r="E42" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F42" s="6">
         <v>120.67</v>
@@ -61482,13 +61500,15 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W42" s="11">
         <v>100</v>
       </c>
       <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z42" s="9"/>
     </row>
     <row r="43" spans="1:26" ht="15">
@@ -61503,7 +61523,7 @@
       </c>
       <c r="E43" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F43" s="6">
         <v>120.67</v>
@@ -61526,13 +61546,15 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="11">
         <v>100</v>
       </c>
       <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z43" s="9"/>
     </row>
     <row r="44" spans="1:26" ht="15">
@@ -61584,7 +61606,7 @@
       </c>
       <c r="E45" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F45" s="6">
         <v>120.67</v>
@@ -61607,13 +61629,15 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="11">
         <v>100</v>
       </c>
       <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
+      <c r="Y45" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z45" s="9"/>
     </row>
     <row r="46" spans="1:26" ht="15">
@@ -61628,7 +61652,7 @@
       </c>
       <c r="E46" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F46" s="6">
         <v>120.67</v>
@@ -61651,13 +61675,15 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="W46" s="11">
         <v>141</v>
       </c>
       <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
+      <c r="Y46" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="1:26" ht="15">
@@ -61691,11 +61717,11 @@
       </c>
       <c r="L47" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M47" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>25</v>
@@ -61743,7 +61769,7 @@
       </c>
       <c r="E48" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F48" s="6">
         <v>100.67</v>
@@ -61766,13 +61792,15 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="11">
         <v>100</v>
       </c>
       <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
+      <c r="Y48" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z48" s="9"/>
     </row>
     <row r="49" spans="1:26" ht="15">
@@ -61787,7 +61815,7 @@
       </c>
       <c r="E49" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F49" s="6">
         <v>100.67</v>
@@ -61810,13 +61838,15 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W49" s="11">
         <v>100</v>
       </c>
       <c r="X49" s="9"/>
-      <c r="Y49" s="9"/>
+      <c r="Y49" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z49" s="9"/>
     </row>
     <row r="50" spans="1:26" ht="15">
@@ -61870,7 +61900,7 @@
       </c>
       <c r="E51" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F51" s="6">
         <v>100.67</v>
@@ -61893,13 +61923,15 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W51" s="11">
         <v>100</v>
       </c>
       <c r="X51" s="9"/>
-      <c r="Y51" s="9"/>
+      <c r="Y51" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z51" s="9"/>
     </row>
     <row r="52" spans="1:26" ht="15">
@@ -61914,7 +61946,7 @@
       </c>
       <c r="E52" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F52" s="6">
         <v>100</v>
@@ -61937,13 +61969,15 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W52" s="11">
         <v>100</v>
       </c>
       <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
+      <c r="Y52" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z52" s="9"/>
     </row>
     <row r="53" spans="1:26" ht="15">
@@ -61995,7 +62029,7 @@
       </c>
       <c r="E54" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F54" s="6">
         <v>100.67</v>
@@ -62022,13 +62056,15 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="11">
         <v>100</v>
       </c>
       <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
+      <c r="Y54" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z54" s="9"/>
     </row>
     <row r="55" spans="1:26" ht="15">
@@ -62043,7 +62079,7 @@
       </c>
       <c r="E55" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F55" s="6">
         <v>100</v>
@@ -62070,13 +62106,15 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W55" s="11">
         <v>100</v>
       </c>
       <c r="X55" s="9"/>
-      <c r="Y55" s="9"/>
+      <c r="Y55" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z55" s="9"/>
     </row>
     <row r="56" spans="1:26" ht="15">
@@ -62110,11 +62148,11 @@
       </c>
       <c r="L56" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M56" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>25</v>
@@ -62162,7 +62200,7 @@
       </c>
       <c r="E57" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F57" s="6">
         <v>100.67</v>
@@ -62187,13 +62225,15 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="11">
         <v>100</v>
       </c>
       <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
+      <c r="Y57" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z57" s="9"/>
     </row>
     <row r="58" spans="1:26" ht="15">
@@ -62208,7 +62248,7 @@
       </c>
       <c r="E58" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F58" s="6">
         <v>100.67</v>
@@ -62233,13 +62273,15 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="11">
         <v>100</v>
       </c>
       <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
+      <c r="Y58" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z58" s="9"/>
     </row>
     <row r="59" spans="1:26" ht="15">
@@ -62293,7 +62335,7 @@
       </c>
       <c r="E60" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F60" s="6">
         <v>80.67</v>
@@ -62320,13 +62362,15 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="11">
         <v>100</v>
       </c>
       <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
+      <c r="Y60" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z60" s="9"/>
     </row>
     <row r="61" spans="1:26" ht="15">
@@ -62341,7 +62385,7 @@
       </c>
       <c r="E61" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F61" s="6">
         <v>80.67</v>
@@ -62368,13 +62412,15 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="11">
         <v>100</v>
       </c>
       <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
+      <c r="Y61" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z61" s="9"/>
     </row>
     <row r="62" spans="1:26" ht="15">
@@ -62426,7 +62472,7 @@
       </c>
       <c r="E63" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F63" s="6">
         <v>80.67</v>
@@ -62453,13 +62499,15 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W63" s="11">
         <v>100</v>
       </c>
       <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
+      <c r="Y63" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z63" s="9"/>
     </row>
     <row r="64" spans="1:26" ht="15">
@@ -62474,7 +62522,7 @@
       </c>
       <c r="E64" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F64" s="6">
         <v>80.67</v>
@@ -62501,13 +62549,15 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="W64" s="11">
         <v>61</v>
       </c>
       <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
+      <c r="Y64" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z64" s="9"/>
     </row>
     <row r="65" spans="1:26" ht="15">
@@ -62541,11 +62591,11 @@
       </c>
       <c r="L65" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M65" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>25</v>
@@ -62593,7 +62643,7 @@
       </c>
       <c r="E66" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F66" s="6">
         <v>100.67</v>
@@ -62616,13 +62666,15 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W66" s="11">
         <v>100</v>
       </c>
       <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z66" s="9"/>
     </row>
     <row r="67" spans="1:26" ht="15">
@@ -62637,7 +62689,7 @@
       </c>
       <c r="E67" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F67" s="6">
         <v>100.67</v>
@@ -62660,13 +62712,15 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W67" s="11">
         <v>100</v>
       </c>
       <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
+      <c r="Y67" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z67" s="9"/>
     </row>
     <row r="68" spans="1:26" ht="15">
@@ -62757,7 +62811,7 @@
       </c>
       <c r="E70" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F70" s="6">
         <v>80.67</v>
@@ -62779,14 +62833,14 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
-      <c r="V70" s="9">
-        <v>0</v>
-      </c>
+      <c r="V70" s="9"/>
       <c r="W70" s="11">
         <v>0</v>
       </c>
       <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
+      <c r="Y70" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z70" s="9"/>
     </row>
     <row r="71" spans="1:26" ht="15">
@@ -62801,7 +62855,7 @@
       </c>
       <c r="E71" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F71" s="6">
         <v>80.67</v>
@@ -62823,14 +62877,14 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
-      <c r="V71" s="9">
-        <v>0</v>
-      </c>
+      <c r="V71" s="9"/>
       <c r="W71" s="11">
         <v>0</v>
       </c>
       <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
+      <c r="Y71" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z71" s="9"/>
     </row>
     <row r="72" spans="1:26" ht="15">
@@ -62882,7 +62936,7 @@
       </c>
       <c r="E73" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F73" s="6">
         <v>80.67</v>
@@ -62904,14 +62958,14 @@
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
-      <c r="V73" s="9">
-        <v>0</v>
-      </c>
+      <c r="V73" s="9"/>
       <c r="W73" s="11">
         <v>0</v>
       </c>
       <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
+      <c r="Y73" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z73" s="9"/>
     </row>
     <row r="74" spans="1:26" ht="15">
@@ -62926,7 +62980,7 @@
       </c>
       <c r="E74" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F74" s="6">
         <v>80.67</v>
@@ -62948,14 +63002,14 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
-      <c r="V74" s="9">
-        <v>0</v>
-      </c>
+      <c r="V74" s="9"/>
       <c r="W74" s="11">
         <v>0</v>
       </c>
       <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z74" s="9"/>
     </row>
     <row r="75" spans="1:26" ht="15">
@@ -62989,11 +63043,11 @@
       </c>
       <c r="L75" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M75" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>25</v>
@@ -63041,7 +63095,7 @@
       </c>
       <c r="E76" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F76" s="6">
         <v>100.67</v>
@@ -63063,13 +63117,15 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="11">
         <v>100</v>
       </c>
       <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
+      <c r="Y76" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="1:26" ht="15">
@@ -63084,7 +63140,7 @@
       </c>
       <c r="E77" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F77" s="6">
         <v>100.67</v>
@@ -63106,13 +63162,15 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W77" s="11">
         <v>100</v>
       </c>
       <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
+      <c r="Y77" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z77" s="9"/>
     </row>
     <row r="78" spans="1:26" ht="15">
@@ -63201,7 +63259,7 @@
       </c>
       <c r="E80" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F80" s="6">
         <v>120.67</v>
@@ -63222,14 +63280,14 @@
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
-      <c r="V80" s="9">
-        <v>0</v>
-      </c>
+      <c r="V80" s="9"/>
       <c r="W80" s="11">
         <v>0</v>
       </c>
       <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
+      <c r="Y80" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z80" s="9"/>
     </row>
     <row r="81" spans="1:26" ht="15">
@@ -63244,7 +63302,7 @@
       </c>
       <c r="E81" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F81" s="6">
         <v>120.67</v>
@@ -63265,14 +63323,14 @@
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
-      <c r="V81" s="9">
-        <v>0</v>
-      </c>
+      <c r="V81" s="9"/>
       <c r="W81" s="11">
         <v>0</v>
       </c>
       <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
+      <c r="Y81" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z81" s="9"/>
     </row>
     <row r="82" spans="1:26" ht="15">
@@ -63324,7 +63382,7 @@
       </c>
       <c r="E83" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F83" s="6">
         <v>120.67</v>
@@ -63350,14 +63408,14 @@
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
-      <c r="V83" s="9">
-        <v>0</v>
-      </c>
+      <c r="V83" s="9"/>
       <c r="W83" s="11">
         <v>0</v>
       </c>
       <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
+      <c r="Y83" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z83" s="9"/>
     </row>
     <row r="84" spans="1:26" ht="15">
@@ -63372,7 +63430,7 @@
       </c>
       <c r="E84" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F84" s="6">
         <v>120.67</v>
@@ -63399,13 +63457,15 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="W84" s="11">
         <v>41</v>
       </c>
       <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
+      <c r="Y84" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z84" s="9"/>
     </row>
     <row r="85" spans="1:26" ht="15">
@@ -63439,11 +63499,11 @@
       </c>
       <c r="L85" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M85" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>25</v>
@@ -63491,7 +63551,7 @@
       </c>
       <c r="E86" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F86" s="6">
         <v>100.67</v>
@@ -63513,13 +63573,15 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W86" s="11">
         <v>100</v>
       </c>
       <c r="X86" s="9"/>
-      <c r="Y86" s="9"/>
+      <c r="Y86" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z86" s="9"/>
     </row>
     <row r="87" spans="1:26" ht="15">
@@ -63534,7 +63596,7 @@
       </c>
       <c r="E87" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F87" s="6">
         <v>100.67</v>
@@ -63556,13 +63618,15 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W87" s="11">
         <v>100</v>
       </c>
       <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z87" s="9"/>
     </row>
     <row r="88" spans="1:26" ht="15">
@@ -63653,7 +63717,7 @@
       </c>
       <c r="E90" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F90" s="6">
         <v>100.67</v>
@@ -63701,7 +63765,7 @@
       </c>
       <c r="E91" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F91" s="6">
         <v>100.67</v>
@@ -63768,11 +63832,11 @@
       </c>
       <c r="L92" s="17">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M92" s="17">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>25</v>
@@ -63820,7 +63884,7 @@
       </c>
       <c r="E93" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F93" s="6">
         <v>100.67</v>
@@ -63842,13 +63906,15 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W93" s="11">
         <v>100</v>
       </c>
       <c r="X93" s="9"/>
-      <c r="Y93" s="9"/>
+      <c r="Y93" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z93" s="9"/>
     </row>
     <row r="94" spans="1:26" ht="15">
@@ -63863,7 +63929,7 @@
       </c>
       <c r="E94" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F94" s="6">
         <v>100.67</v>
@@ -63885,13 +63951,15 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="11">
         <v>100</v>
       </c>
       <c r="X94" s="9"/>
-      <c r="Y94" s="9"/>
+      <c r="Y94" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z94" s="9"/>
     </row>
     <row r="95" spans="1:26" ht="15">
@@ -63980,7 +64048,7 @@
       </c>
       <c r="E97" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F97" s="6">
         <v>100.67</v>
@@ -64004,14 +64072,14 @@
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
-      <c r="V97" s="9">
-        <v>0</v>
-      </c>
+      <c r="V97" s="9"/>
       <c r="W97" s="11">
         <v>0</v>
       </c>
       <c r="X97" s="9"/>
-      <c r="Y97" s="9"/>
+      <c r="Y97" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z97" s="9"/>
     </row>
     <row r="98" spans="1:26" ht="15">
@@ -64026,7 +64094,7 @@
       </c>
       <c r="E98" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F98" s="6">
         <v>100.67</v>
@@ -64051,13 +64119,15 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W98" s="11">
         <v>1</v>
       </c>
       <c r="X98" s="9"/>
-      <c r="Y98" s="9"/>
+      <c r="Y98" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z98" s="9"/>
     </row>
     <row r="99" spans="1:26" ht="15">
@@ -64111,7 +64181,7 @@
       </c>
       <c r="E100" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F100" s="6">
         <v>80.67</v>
@@ -64132,14 +64202,14 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
-      <c r="V100" s="9">
-        <v>0</v>
-      </c>
+      <c r="V100" s="9"/>
       <c r="W100" s="11">
         <v>0</v>
       </c>
       <c r="X100" s="9"/>
-      <c r="Y100" s="9"/>
+      <c r="Y100" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z100" s="9"/>
     </row>
     <row r="101" spans="1:26" ht="15">
@@ -64154,7 +64224,7 @@
       </c>
       <c r="E101" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F101" s="6">
         <v>80.67</v>
@@ -64176,13 +64246,15 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W101" s="11">
         <v>1</v>
       </c>
       <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
+      <c r="Y101" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z101" s="9"/>
     </row>
     <row r="102" spans="1:26">
@@ -64234,7 +64306,7 @@
       </c>
       <c r="F103" s="17">
         <f ca="1">TODAY()+2</f>
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="16">
@@ -64251,11 +64323,11 @@
       </c>
       <c r="L103" s="17">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="M103" s="17">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N103" s="6" t="s">
         <v>25</v>
@@ -64303,7 +64375,7 @@
       </c>
       <c r="E104" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F104" s="6">
         <v>100.67</v>
@@ -64347,7 +64419,7 @@
       </c>
       <c r="E105" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F105" s="6">
         <v>100.67</v>
@@ -64430,7 +64502,7 @@
       </c>
       <c r="E107" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F107" s="6">
         <v>100.67</v>
@@ -64476,7 +64548,7 @@
       </c>
       <c r="E108" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F108" s="6">
         <v>100.67</v>
@@ -64522,7 +64594,7 @@
       </c>
       <c r="E109" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F109" s="6">
         <v>100.67</v>
@@ -64566,7 +64638,7 @@
       </c>
       <c r="E110" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F110" s="6">
         <v>100.67</v>
@@ -64629,11 +64701,11 @@
       </c>
       <c r="L111" s="17">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="M111" s="17">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>25</v>
@@ -64683,7 +64755,7 @@
       </c>
       <c r="E112" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F112" s="6">
         <v>100.67</v>
@@ -64706,13 +64778,15 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W112" s="11">
         <v>100</v>
       </c>
       <c r="X112" s="9"/>
-      <c r="Y112" s="9"/>
+      <c r="Y112" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z112" s="9"/>
     </row>
     <row r="113" spans="1:26" ht="15">
@@ -64727,7 +64801,7 @@
       </c>
       <c r="E113" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F113" s="6">
         <v>100.67</v>
@@ -64750,13 +64824,15 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W113" s="11">
         <v>100</v>
       </c>
       <c r="X113" s="9"/>
-      <c r="Y113" s="9"/>
+      <c r="Y113" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z113" s="9"/>
     </row>
     <row r="114" spans="1:26" ht="15">
@@ -64771,7 +64847,7 @@
       </c>
       <c r="E114" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F114" s="6">
         <v>100.67</v>
@@ -64794,13 +64870,15 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W114" s="11">
         <v>100</v>
       </c>
       <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
+      <c r="Y114" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z114" s="9"/>
     </row>
     <row r="115" spans="1:26" ht="15">
@@ -64815,7 +64893,7 @@
       </c>
       <c r="E115" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F115" s="6">
         <v>100.67</v>
@@ -64837,14 +64915,14 @@
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
-      <c r="V115" s="9">
-        <v>100</v>
-      </c>
+      <c r="V115" s="9"/>
       <c r="W115" s="11">
         <v>0</v>
       </c>
       <c r="X115" s="9"/>
-      <c r="Y115" s="9"/>
+      <c r="Y115" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z115" s="9"/>
     </row>
     <row r="116" spans="1:26" ht="15">
@@ -64859,7 +64937,7 @@
       </c>
       <c r="E116" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F116" s="6">
         <v>100.67</v>
@@ -64886,7 +64964,9 @@
         <v>0</v>
       </c>
       <c r="X116" s="9"/>
-      <c r="Y116" s="9"/>
+      <c r="Y116" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z116" s="9"/>
     </row>
     <row r="117" spans="1:26" ht="15">
@@ -64938,7 +65018,7 @@
       </c>
       <c r="E118" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F118" s="6">
         <v>100.67</v>
@@ -64961,13 +65041,15 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W118" s="11">
         <v>100</v>
       </c>
       <c r="X118" s="9"/>
-      <c r="Y118" s="9"/>
+      <c r="Y118" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z118" s="9"/>
     </row>
     <row r="119" spans="1:26" ht="15">
@@ -64982,7 +65064,7 @@
       </c>
       <c r="E119" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F119" s="6">
         <v>100.67</v>
@@ -65005,13 +65087,15 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W119" s="11">
         <v>100</v>
       </c>
       <c r="X119" s="9"/>
-      <c r="Y119" s="9"/>
+      <c r="Y119" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z119" s="9"/>
     </row>
     <row r="120" spans="1:26" ht="15">
@@ -65026,7 +65110,7 @@
       </c>
       <c r="E120" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F120" s="6">
         <v>100.67</v>
@@ -65049,13 +65133,15 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W120" s="11">
         <v>100</v>
       </c>
       <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
+      <c r="Y120" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z120" s="9"/>
     </row>
     <row r="121" spans="1:26" ht="15">
@@ -65070,7 +65156,7 @@
       </c>
       <c r="E121" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F121" s="6">
         <v>100.67</v>
@@ -65092,14 +65178,14 @@
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
-      <c r="V121" s="9">
-        <v>100</v>
-      </c>
+      <c r="V121" s="9"/>
       <c r="W121" s="11">
         <v>0</v>
       </c>
       <c r="X121" s="9"/>
-      <c r="Y121" s="9"/>
+      <c r="Y121" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z121" s="9"/>
     </row>
     <row r="122" spans="1:26" ht="15">
@@ -65114,7 +65200,7 @@
       </c>
       <c r="E122" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F122" s="6">
         <v>100.67</v>
@@ -65141,7 +65227,9 @@
         <v>0</v>
       </c>
       <c r="X122" s="9"/>
-      <c r="Y122" s="9"/>
+      <c r="Y122" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z122" s="9"/>
     </row>
     <row r="123" spans="1:26" ht="15">
@@ -65158,7 +65246,7 @@
       </c>
       <c r="E123" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F123" s="6">
         <v>100.67</v>
@@ -65181,13 +65269,15 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
       <c r="V123" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W123" s="11">
         <v>100</v>
       </c>
       <c r="X123" s="9"/>
-      <c r="Y123" s="9"/>
+      <c r="Y123" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z123" s="9"/>
     </row>
     <row r="124" spans="1:26" ht="15">
@@ -65202,7 +65292,7 @@
       </c>
       <c r="E124" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F124" s="6">
         <v>100.67</v>
@@ -65225,13 +65315,15 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
       <c r="V124" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W124" s="11">
         <v>100</v>
       </c>
       <c r="X124" s="9"/>
-      <c r="Y124" s="9"/>
+      <c r="Y124" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z124" s="9"/>
     </row>
     <row r="125" spans="1:26" ht="15">
@@ -65246,7 +65338,7 @@
       </c>
       <c r="E125" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F125" s="6">
         <v>100.67</v>
@@ -65269,13 +65361,15 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
       <c r="V125" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W125" s="11">
         <v>100</v>
       </c>
       <c r="X125" s="9"/>
-      <c r="Y125" s="9"/>
+      <c r="Y125" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z125" s="9"/>
     </row>
     <row r="126" spans="1:26" ht="15">
@@ -65290,7 +65384,7 @@
       </c>
       <c r="E126" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F126" s="6">
         <v>100.67</v>
@@ -65317,7 +65411,9 @@
         <v>0</v>
       </c>
       <c r="X126" s="9"/>
-      <c r="Y126" s="9"/>
+      <c r="Y126" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z126" s="9"/>
     </row>
     <row r="127" spans="1:26" ht="15">
@@ -65332,7 +65428,7 @@
       </c>
       <c r="E127" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F127" s="6">
         <v>100.67</v>
@@ -65354,14 +65450,14 @@
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
-      <c r="V127" s="9">
-        <v>0</v>
-      </c>
+      <c r="V127" s="9"/>
       <c r="W127" s="11">
         <v>0</v>
       </c>
       <c r="X127" s="9"/>
-      <c r="Y127" s="9"/>
+      <c r="Y127" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z127" s="9"/>
     </row>
     <row r="128" spans="1:26" ht="15">
@@ -65415,7 +65511,7 @@
       </c>
       <c r="E129" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F129" s="6">
         <v>100.67</v>
@@ -65437,13 +65533,15 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
       <c r="V129" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W129" s="11">
         <v>100</v>
       </c>
       <c r="X129" s="9"/>
-      <c r="Y129" s="9"/>
+      <c r="Y129" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z129" s="9"/>
     </row>
     <row r="130" spans="1:26" ht="15">
@@ -65458,7 +65556,7 @@
       </c>
       <c r="E130" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F130" s="6">
         <v>100.67</v>
@@ -65480,13 +65578,15 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W130" s="11">
         <v>100</v>
       </c>
       <c r="X130" s="9"/>
-      <c r="Y130" s="9"/>
+      <c r="Y130" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z130" s="9"/>
     </row>
     <row r="131" spans="1:26" ht="15">
@@ -65501,7 +65601,7 @@
       </c>
       <c r="E131" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F131" s="6">
         <v>100.67</v>
@@ -65523,13 +65623,15 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W131" s="11">
         <v>100</v>
       </c>
       <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
+      <c r="Y131" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z131" s="9"/>
     </row>
     <row r="132" spans="1:26" ht="15">
@@ -65544,7 +65646,7 @@
       </c>
       <c r="E132" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F132" s="6">
         <v>100.67</v>
@@ -65570,7 +65672,9 @@
         <v>0</v>
       </c>
       <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
+      <c r="Y132" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z132" s="9"/>
     </row>
     <row r="133" spans="1:26" ht="15">
@@ -65585,7 +65689,7 @@
       </c>
       <c r="E133" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F133" s="6">
         <v>100.67</v>
@@ -65613,7 +65717,9 @@
         <v>103</v>
       </c>
       <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
+      <c r="Y133" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z133" s="9"/>
     </row>
     <row r="134" spans="1:26" ht="15">
@@ -65687,11 +65793,11 @@
       </c>
       <c r="L135" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M135" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N135" s="6" t="s">
         <v>25</v>
@@ -65736,7 +65842,7 @@
       </c>
       <c r="E136" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F136" s="6">
         <v>100.67</v>
@@ -65759,13 +65865,15 @@
       <c r="T136" s="9"/>
       <c r="U136" s="9"/>
       <c r="V136" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W136" s="11">
         <v>100</v>
       </c>
       <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
+      <c r="Y136" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z136" s="9"/>
     </row>
     <row r="137" spans="1:26" ht="15">
@@ -65780,7 +65888,7 @@
       </c>
       <c r="E137" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F137" s="6">
         <v>100.67</v>
@@ -65803,13 +65911,15 @@
       <c r="T137" s="9"/>
       <c r="U137" s="9"/>
       <c r="V137" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W137" s="11">
         <v>100</v>
       </c>
       <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z137" s="9"/>
     </row>
     <row r="138" spans="1:26" ht="30">
@@ -65843,11 +65953,11 @@
       </c>
       <c r="L138" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M138" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N138" s="6" t="s">
         <v>25</v>
@@ -65894,7 +66004,7 @@
       </c>
       <c r="E139" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F139" s="6">
         <v>100.67</v>
@@ -65917,13 +66027,15 @@
       <c r="T139" s="9"/>
       <c r="U139" s="9"/>
       <c r="V139" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W139" s="11">
         <v>100</v>
       </c>
       <c r="X139" s="9"/>
-      <c r="Y139" s="9"/>
+      <c r="Y139" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z139" s="9"/>
     </row>
     <row r="140" spans="1:26" ht="15">
@@ -65938,7 +66050,7 @@
       </c>
       <c r="E140" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F140" s="6">
         <v>100.67</v>
@@ -65961,13 +66073,15 @@
       <c r="T140" s="9"/>
       <c r="U140" s="9"/>
       <c r="V140" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W140" s="11">
         <v>100</v>
       </c>
       <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z140" s="9"/>
     </row>
     <row r="141" spans="1:26" ht="15">
@@ -65982,7 +66096,7 @@
       </c>
       <c r="E141" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F141" s="6">
         <v>100.67</v>
@@ -66009,7 +66123,9 @@
         <v>0</v>
       </c>
       <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
+      <c r="Y141" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z141" s="9"/>
     </row>
     <row r="142" spans="1:26" ht="30">
@@ -66043,11 +66159,11 @@
       </c>
       <c r="L142" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="M142" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N142" s="6" t="s">
         <v>25</v>
@@ -66094,7 +66210,7 @@
       </c>
       <c r="E143" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F143" s="6">
         <v>100.67</v>
@@ -66117,13 +66233,15 @@
       <c r="T143" s="9"/>
       <c r="U143" s="9"/>
       <c r="V143" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W143" s="11">
         <v>100</v>
       </c>
       <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
+      <c r="Y143" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z143" s="9"/>
     </row>
     <row r="144" spans="1:26" ht="15">
@@ -66138,7 +66256,7 @@
       </c>
       <c r="E144" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F144" s="6">
         <v>100.67</v>
@@ -66165,7 +66283,9 @@
         <v>0</v>
       </c>
       <c r="X144" s="9"/>
-      <c r="Y144" s="9"/>
+      <c r="Y144" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z144" s="9"/>
     </row>
     <row r="145" spans="1:26" ht="30">
@@ -66229,11 +66349,11 @@
       </c>
       <c r="L146" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M146" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N146" s="32" t="s">
         <v>106</v>
@@ -66280,7 +66400,7 @@
       </c>
       <c r="E147" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F147" s="6">
         <v>100.67</v>
@@ -66307,13 +66427,15 @@
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
       <c r="V147" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W147" s="11">
         <v>100</v>
       </c>
       <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
+      <c r="Y147" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z147" s="9"/>
     </row>
     <row r="148" spans="1:26" ht="15">
@@ -66328,7 +66450,7 @@
       </c>
       <c r="E148" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F148" s="6">
         <v>100.67</v>
@@ -66355,13 +66477,15 @@
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
       <c r="V148" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W148" s="11">
         <v>100</v>
       </c>
       <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
+      <c r="Y148" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z148" s="9"/>
     </row>
     <row r="149" spans="1:26" ht="30">
@@ -66395,11 +66519,11 @@
       </c>
       <c r="L149" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M149" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N149" s="32" t="s">
         <v>106</v>
@@ -66446,7 +66570,7 @@
       </c>
       <c r="E150" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F150" s="6">
         <v>100.67</v>
@@ -66469,13 +66593,15 @@
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
       <c r="V150" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W150" s="11">
         <v>100</v>
       </c>
       <c r="X150" s="9"/>
-      <c r="Y150" s="9"/>
+      <c r="Y150" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z150" s="9"/>
     </row>
     <row r="151" spans="1:26" ht="15">
@@ -66490,7 +66616,7 @@
       </c>
       <c r="E151" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F151" s="6">
         <v>100.67</v>
@@ -66513,13 +66639,15 @@
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
       <c r="V151" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W151" s="11">
         <v>100</v>
       </c>
       <c r="X151" s="9"/>
-      <c r="Y151" s="9"/>
+      <c r="Y151" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z151" s="9"/>
     </row>
     <row r="152" spans="1:26" ht="15">
@@ -66534,7 +66662,7 @@
       </c>
       <c r="E152" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F152" s="6">
         <v>100.67</v>
@@ -66561,7 +66689,9 @@
         <v>0</v>
       </c>
       <c r="X152" s="9"/>
-      <c r="Y152" s="9"/>
+      <c r="Y152" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z152" s="9"/>
     </row>
     <row r="153" spans="1:26" ht="30">
@@ -66595,11 +66725,11 @@
       </c>
       <c r="L153" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="M153" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N153" s="32" t="s">
         <v>106</v>
@@ -66646,7 +66776,7 @@
       </c>
       <c r="E154" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F154" s="6">
         <v>100.67</v>
@@ -66669,13 +66799,15 @@
       <c r="T154" s="9"/>
       <c r="U154" s="9"/>
       <c r="V154" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W154" s="11">
         <v>100</v>
       </c>
       <c r="X154" s="9"/>
-      <c r="Y154" s="9"/>
+      <c r="Y154" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z154" s="9"/>
     </row>
     <row r="155" spans="1:26" ht="15">
@@ -66690,7 +66822,7 @@
       </c>
       <c r="E155" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F155" s="6">
         <v>100.67</v>
@@ -66717,7 +66849,9 @@
         <v>0</v>
       </c>
       <c r="X155" s="9"/>
-      <c r="Y155" s="9"/>
+      <c r="Y155" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z155" s="9"/>
     </row>
     <row r="156" spans="1:26" ht="45">
@@ -66781,11 +66915,11 @@
       </c>
       <c r="L157" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M157" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N157" s="32" t="s">
         <v>106</v>
@@ -66832,7 +66966,7 @@
       </c>
       <c r="E158" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F158" s="6">
         <v>100.67</v>
@@ -66855,13 +66989,15 @@
       <c r="T158" s="9"/>
       <c r="U158" s="9"/>
       <c r="V158" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W158" s="11">
         <v>100</v>
       </c>
       <c r="X158" s="9"/>
-      <c r="Y158" s="9"/>
+      <c r="Y158" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z158" s="9"/>
     </row>
     <row r="159" spans="1:26" ht="15">
@@ -66876,7 +67012,7 @@
       </c>
       <c r="E159" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F159" s="6">
         <v>100.67</v>
@@ -66899,13 +67035,15 @@
       <c r="T159" s="9"/>
       <c r="U159" s="9"/>
       <c r="V159" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W159" s="11">
         <v>100</v>
       </c>
       <c r="X159" s="9"/>
-      <c r="Y159" s="9"/>
+      <c r="Y159" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z159" s="9"/>
     </row>
     <row r="160" spans="1:26" ht="15">
@@ -66999,11 +67137,11 @@
       </c>
       <c r="L162" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="M162" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N162" s="32" t="s">
         <v>106</v>
@@ -67050,7 +67188,7 @@
       </c>
       <c r="E163" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F163" s="6">
         <v>100.67</v>
@@ -67073,13 +67211,15 @@
       <c r="T163" s="9"/>
       <c r="U163" s="9"/>
       <c r="V163" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W163" s="11">
         <v>100</v>
       </c>
       <c r="X163" s="9"/>
-      <c r="Y163" s="9"/>
+      <c r="Y163" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z163" s="9"/>
     </row>
     <row r="164" spans="1:26" ht="15">
@@ -67094,7 +67234,7 @@
       </c>
       <c r="E164" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F164" s="6">
         <v>100.67</v>
@@ -67117,13 +67257,15 @@
       <c r="T164" s="9"/>
       <c r="U164" s="9"/>
       <c r="V164" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W164" s="11">
         <v>100</v>
       </c>
       <c r="X164" s="9"/>
-      <c r="Y164" s="9"/>
+      <c r="Y164" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z164" s="9"/>
     </row>
     <row r="165" spans="1:26" ht="15">
@@ -67138,7 +67280,7 @@
       </c>
       <c r="E165" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F165" s="6">
         <v>100.67</v>
@@ -67165,7 +67307,9 @@
         <v>0</v>
       </c>
       <c r="X165" s="9"/>
-      <c r="Y165" s="9"/>
+      <c r="Y165" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z165" s="9"/>
     </row>
     <row r="166" spans="1:26" ht="30">
@@ -67199,11 +67343,11 @@
       </c>
       <c r="L166" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="M166" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N166" s="32" t="s">
         <v>106</v>
@@ -67250,7 +67394,7 @@
       </c>
       <c r="E167" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F167" s="6">
         <v>100.67</v>
@@ -67275,13 +67419,15 @@
       <c r="T167" s="9"/>
       <c r="U167" s="9"/>
       <c r="V167" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W167" s="11">
         <v>100</v>
       </c>
       <c r="X167" s="9"/>
-      <c r="Y167" s="9"/>
+      <c r="Y167" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z167" s="9"/>
     </row>
     <row r="168" spans="1:26" ht="15">
@@ -67296,7 +67442,7 @@
       </c>
       <c r="E168" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F168" s="6">
         <v>100.67</v>
@@ -67325,7 +67471,9 @@
         <v>0</v>
       </c>
       <c r="X168" s="9"/>
-      <c r="Y168" s="9"/>
+      <c r="Y168" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z168" s="9"/>
     </row>
     <row r="169" spans="1:26" ht="45">
@@ -67389,11 +67537,11 @@
       </c>
       <c r="L170" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="M170" s="5">
         <f ca="1">TODAY()+1</f>
-        <v>45048</v>
+        <v>45063</v>
       </c>
       <c r="N170" s="32" t="s">
         <v>106</v>
@@ -67440,7 +67588,7 @@
       </c>
       <c r="E171" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F171" s="6">
         <v>100.67</v>
@@ -67462,13 +67610,15 @@
       <c r="T171" s="9"/>
       <c r="U171" s="9"/>
       <c r="V171" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W171" s="11">
         <v>101</v>
       </c>
       <c r="X171" s="9"/>
-      <c r="Y171" s="9"/>
+      <c r="Y171" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z171" s="9"/>
     </row>
     <row r="172" spans="1:26" ht="15">
@@ -67483,7 +67633,7 @@
       </c>
       <c r="E172" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="F172" s="6">
         <v>100.67</v>
@@ -67509,7 +67659,9 @@
         <v>0</v>
       </c>
       <c r="X172" s="9"/>
-      <c r="Y172" s="9"/>
+      <c r="Y172" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z172" s="9"/>
     </row>
     <row r="173" spans="1:26" ht="51.75">
@@ -67543,11 +67695,11 @@
       </c>
       <c r="L173" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="M173" s="5">
         <f ca="1">TODAY()</f>
-        <v>45047</v>
+        <v>45062</v>
       </c>
       <c r="N173" s="6" t="s">
         <v>25</v>
@@ -67595,7 +67747,7 @@
       </c>
       <c r="E174" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="F174" s="6">
         <v>100.4</v>
@@ -67637,7 +67789,7 @@
       </c>
       <c r="E175" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>45042</v>
+        <v>45057</v>
       </c>
       <c r="F175" s="6">
         <v>100.95</v>
@@ -67679,7 +67831,7 @@
       </c>
       <c r="E176" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F176" s="6">
         <v>0</v>
@@ -67721,7 +67873,7 @@
       </c>
       <c r="E177" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F177" s="6">
         <v>0.95</v>
@@ -67763,7 +67915,7 @@
       </c>
       <c r="E178" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F178" s="6">
         <v>0</v>
@@ -67807,7 +67959,7 @@
       </c>
       <c r="E179" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F179" s="6">
         <v>0</v>
@@ -67886,7 +68038,7 @@
       </c>
       <c r="E181" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="F181" s="6">
         <v>100.4</v>
@@ -67909,13 +68061,15 @@
       <c r="T181" s="9"/>
       <c r="U181" s="9"/>
       <c r="V181" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W181" s="11">
         <v>100</v>
       </c>
       <c r="X181" s="9"/>
-      <c r="Y181" s="9"/>
+      <c r="Y181" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z181" s="9"/>
     </row>
     <row r="182" spans="1:26" ht="15">
@@ -67930,7 +68084,7 @@
       </c>
       <c r="E182" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>45042</v>
+        <v>45057</v>
       </c>
       <c r="F182" s="6">
         <v>100.95</v>
@@ -67953,13 +68107,15 @@
       <c r="T182" s="9"/>
       <c r="U182" s="9"/>
       <c r="V182" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W182" s="11">
         <v>100</v>
       </c>
       <c r="X182" s="9"/>
-      <c r="Y182" s="9"/>
+      <c r="Y182" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z182" s="9"/>
     </row>
     <row r="183" spans="1:26" ht="15">
@@ -67974,7 +68130,7 @@
       </c>
       <c r="E183" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F183" s="6">
         <v>0</v>
@@ -67996,14 +68152,14 @@
       <c r="S183" s="9"/>
       <c r="T183" s="9"/>
       <c r="U183" s="9"/>
-      <c r="V183" s="9">
-        <v>0</v>
-      </c>
+      <c r="V183" s="9"/>
       <c r="W183" s="11">
         <v>0</v>
       </c>
       <c r="X183" s="9"/>
-      <c r="Y183" s="9"/>
+      <c r="Y183" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z183" s="9"/>
     </row>
     <row r="184" spans="1:26" ht="15">
@@ -68018,7 +68174,7 @@
       </c>
       <c r="E184" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F184" s="6">
         <v>0.95</v>
@@ -68040,14 +68196,14 @@
       <c r="S184" s="9"/>
       <c r="T184" s="9"/>
       <c r="U184" s="9"/>
-      <c r="V184" s="9">
-        <v>0</v>
-      </c>
+      <c r="V184" s="9"/>
       <c r="W184" s="11">
         <v>0</v>
       </c>
       <c r="X184" s="9"/>
-      <c r="Y184" s="9"/>
+      <c r="Y184" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z184" s="9"/>
     </row>
     <row r="185" spans="1:26" ht="15">
@@ -68062,7 +68218,7 @@
       </c>
       <c r="E185" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F185" s="6">
         <v>0</v>
@@ -68084,14 +68240,14 @@
       <c r="S185" s="9"/>
       <c r="T185" s="9"/>
       <c r="U185" s="9"/>
-      <c r="V185" s="9">
-        <v>0</v>
-      </c>
+      <c r="V185" s="9"/>
       <c r="W185" s="11">
         <v>0</v>
       </c>
       <c r="X185" s="9"/>
-      <c r="Y185" s="9"/>
+      <c r="Y185" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z185" s="9"/>
     </row>
     <row r="186" spans="1:26" ht="15">
@@ -68106,7 +68262,7 @@
       </c>
       <c r="E186" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>218</v>
@@ -68128,14 +68284,14 @@
       <c r="S186" s="9"/>
       <c r="T186" s="9"/>
       <c r="U186" s="9"/>
-      <c r="V186" s="9">
-        <v>0</v>
-      </c>
+      <c r="V186" s="9"/>
       <c r="W186" s="11">
         <v>0</v>
       </c>
       <c r="X186" s="9"/>
-      <c r="Y186" s="9"/>
+      <c r="Y186" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z186" s="9"/>
     </row>
     <row r="187" spans="1:26" ht="15">
@@ -68187,7 +68343,7 @@
       </c>
       <c r="E188" s="5">
         <f ca="1">TODAY()-6</f>
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="F188" s="6">
         <v>100.4</v>
@@ -68210,13 +68366,15 @@
       <c r="T188" s="9"/>
       <c r="U188" s="9"/>
       <c r="V188" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W188" s="11">
         <v>100</v>
       </c>
       <c r="X188" s="9"/>
-      <c r="Y188" s="9"/>
+      <c r="Y188" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z188" s="9"/>
     </row>
     <row r="189" spans="1:26" ht="15">
@@ -68231,7 +68389,7 @@
       </c>
       <c r="E189" s="5">
         <f ca="1">TODAY()-5</f>
-        <v>45042</v>
+        <v>45057</v>
       </c>
       <c r="F189" s="6">
         <v>100.95</v>
@@ -68254,13 +68412,15 @@
       <c r="T189" s="9"/>
       <c r="U189" s="9"/>
       <c r="V189" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W189" s="11">
         <v>100</v>
       </c>
       <c r="X189" s="9"/>
-      <c r="Y189" s="9"/>
+      <c r="Y189" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z189" s="9"/>
     </row>
     <row r="190" spans="1:26" ht="15">
@@ -68275,7 +68435,7 @@
       </c>
       <c r="E190" s="5">
         <f ca="1">TODAY()-4</f>
-        <v>45043</v>
+        <v>45058</v>
       </c>
       <c r="F190" s="6">
         <v>0</v>
@@ -68297,14 +68457,14 @@
       <c r="S190" s="9"/>
       <c r="T190" s="9"/>
       <c r="U190" s="9"/>
-      <c r="V190" s="9">
-        <v>0</v>
-      </c>
+      <c r="V190" s="9"/>
       <c r="W190" s="11">
         <v>0</v>
       </c>
       <c r="X190" s="9"/>
-      <c r="Y190" s="9"/>
+      <c r="Y190" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z190" s="9"/>
     </row>
     <row r="191" spans="1:26" ht="15">
@@ -68319,7 +68479,7 @@
       </c>
       <c r="E191" s="5">
         <f ca="1">TODAY()-3</f>
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="F191" s="6">
         <v>0.95</v>
@@ -68341,14 +68501,14 @@
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
       <c r="U191" s="9"/>
-      <c r="V191" s="9">
-        <v>0</v>
-      </c>
+      <c r="V191" s="9"/>
       <c r="W191" s="11">
         <v>0</v>
       </c>
       <c r="X191" s="9"/>
-      <c r="Y191" s="9"/>
+      <c r="Y191" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z191" s="9"/>
     </row>
     <row r="192" spans="1:26" ht="15">
@@ -68363,7 +68523,7 @@
       </c>
       <c r="E192" s="5">
         <f ca="1">TODAY()-2</f>
-        <v>45045</v>
+        <v>45060</v>
       </c>
       <c r="F192" s="6">
         <v>0</v>
@@ -68385,14 +68545,14 @@
       <c r="S192" s="9"/>
       <c r="T192" s="9"/>
       <c r="U192" s="9"/>
-      <c r="V192" s="9">
-        <v>0</v>
-      </c>
+      <c r="V192" s="9"/>
       <c r="W192" s="11">
         <v>0</v>
       </c>
       <c r="X192" s="9"/>
-      <c r="Y192" s="9"/>
+      <c r="Y192" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z192" s="9"/>
     </row>
     <row r="193" spans="1:26" ht="15">
@@ -68407,7 +68567,7 @@
       </c>
       <c r="E193" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45046</v>
+        <v>45061</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>218</v>
@@ -68429,14 +68589,14 @@
       <c r="S193" s="9"/>
       <c r="T193" s="9"/>
       <c r="U193" s="9"/>
-      <c r="V193" s="9">
-        <v>0</v>
-      </c>
+      <c r="V193" s="9"/>
       <c r="W193" s="11">
         <v>0</v>
       </c>
       <c r="X193" s="9"/>
-      <c r="Y193" s="9"/>
+      <c r="Y193" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="Z193" s="9"/>
     </row>
     <row r="194" spans="1:26" ht="15">
@@ -68470,11 +68630,11 @@
       </c>
       <c r="L194" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M194" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N194" s="6" t="s">
         <v>25</v>
@@ -68522,7 +68682,7 @@
       </c>
       <c r="E195" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F195" s="6">
         <v>100.67</v>
@@ -68545,13 +68705,15 @@
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
       <c r="V195" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W195" s="11">
         <v>100</v>
       </c>
       <c r="X195" s="9"/>
-      <c r="Y195" s="9"/>
+      <c r="Y195" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z195" s="9"/>
     </row>
     <row r="196" spans="1:26" ht="15">
@@ -68566,7 +68728,7 @@
       </c>
       <c r="E196" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F196" s="6">
         <v>100.67</v>
@@ -68589,13 +68751,15 @@
       <c r="T196" s="9"/>
       <c r="U196" s="9"/>
       <c r="V196" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W196" s="11">
         <v>100</v>
       </c>
       <c r="X196" s="9"/>
-      <c r="Y196" s="9"/>
+      <c r="Y196" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z196" s="9"/>
     </row>
     <row r="197" spans="1:26" ht="30">
@@ -68649,7 +68813,7 @@
       </c>
       <c r="E198" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F198" s="6">
         <v>100.67</v>
@@ -68672,13 +68836,15 @@
       <c r="T198" s="9"/>
       <c r="U198" s="9"/>
       <c r="V198" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W198" s="11">
         <v>100</v>
       </c>
       <c r="X198" s="9"/>
-      <c r="Y198" s="9"/>
+      <c r="Y198" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z198" s="9"/>
     </row>
     <row r="199" spans="1:26" ht="15">
@@ -68693,7 +68859,7 @@
       </c>
       <c r="E199" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F199" s="6">
         <v>100.67</v>
@@ -68716,7 +68882,7 @@
       <c r="T199" s="9"/>
       <c r="U199" s="9"/>
       <c r="V199" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W199" s="11">
         <v>100</v>
@@ -68756,11 +68922,11 @@
       </c>
       <c r="L200" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="M200" s="5">
         <f ca="1">TODAY()-28</f>
-        <v>45019</v>
+        <v>45034</v>
       </c>
       <c r="N200" s="6" t="s">
         <v>25</v>
@@ -68808,7 +68974,7 @@
       </c>
       <c r="E201" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F201" s="6">
         <v>100.67</v>
@@ -68831,13 +68997,15 @@
       <c r="T201" s="9"/>
       <c r="U201" s="9"/>
       <c r="V201" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W201" s="11">
         <v>100</v>
       </c>
       <c r="X201" s="9"/>
-      <c r="Y201" s="9"/>
+      <c r="Y201" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z201" s="9"/>
     </row>
     <row r="202" spans="1:26" ht="15">
@@ -68852,7 +69020,7 @@
       </c>
       <c r="E202" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F202" s="6">
         <v>100.67</v>
@@ -68875,13 +69043,15 @@
       <c r="T202" s="9"/>
       <c r="U202" s="9"/>
       <c r="V202" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W202" s="11">
         <v>101</v>
       </c>
       <c r="X202" s="9"/>
-      <c r="Y202" s="9"/>
+      <c r="Y202" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z202" s="9"/>
     </row>
     <row r="203" spans="1:26" ht="30">
@@ -68935,7 +69105,7 @@
       </c>
       <c r="E204" s="5">
         <f ca="1">TODAY()-30</f>
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="F204" s="6">
         <v>100.67</v>
@@ -68958,13 +69128,15 @@
       <c r="T204" s="9"/>
       <c r="U204" s="9"/>
       <c r="V204" s="9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W204" s="11">
         <v>100</v>
       </c>
       <c r="X204" s="9"/>
-      <c r="Y204" s="9"/>
+      <c r="Y204" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z204" s="9"/>
     </row>
     <row r="205" spans="1:26" ht="15">
@@ -68979,7 +69151,7 @@
       </c>
       <c r="E205" s="5">
         <f ca="1">TODAY()-29</f>
-        <v>45018</v>
+        <v>45033</v>
       </c>
       <c r="F205" s="6">
         <v>100.67</v>
@@ -69002,13 +69174,15 @@
       <c r="T205" s="9"/>
       <c r="U205" s="9"/>
       <c r="V205" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="W205" s="11">
         <v>101</v>
       </c>
       <c r="X205" s="9"/>
-      <c r="Y205" s="9"/>
+      <c r="Y205" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="Z205" s="9"/>
     </row>
   </sheetData>
